--- a/TCSlowMotion.V1.xlsx
+++ b/TCSlowMotion.V1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polymath01/Desktop/tescase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polymath01/Testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="627">
   <si>
     <t>Module Code</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>Resolved</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Number of Test cases</t>
@@ -3450,7 +3444,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3497,111 +3596,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3891,7 +3885,7 @@
   <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3911,12 +3905,12 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -3927,10 +3921,10 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82"/>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -3941,12 +3935,12 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>603</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="83" t="s">
+        <v>601</v>
+      </c>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="3"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3954,14 +3948,14 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="8"/>
       <c r="F5" s="2" t="s">
         <v>5</v>
@@ -3984,19 +3978,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>
@@ -4032,10 +4026,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="18">
-        <f>COUNTIF(G$12:G$286,"N/A")</f>
-        <v>23</v>
-      </c>
+      <c r="D7" s="18"/>
       <c r="E7" s="19">
         <f>COUNTA(A11:A283)</f>
         <v>269</v>
@@ -4075,94 +4066,94 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="D9" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="E9" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="F9" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="G9" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="73"/>
+      <c r="K9" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="L9" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="38" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="38" t="s">
+      <c r="H10" s="25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>23</v>
-      </c>
       <c r="I10" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="39" t="s">
-        <v>538</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
+      <c r="A11" s="74" t="s">
+        <v>536</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
     </row>
     <row r="12" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="B12" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>28</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="29"/>
@@ -4172,17 +4163,17 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="55"/>
+        <v>496</v>
+      </c>
+      <c r="B13" s="69"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="32"/>
       <c r="G13" s="29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
@@ -4192,17 +4183,17 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="55"/>
+        <v>497</v>
+      </c>
+      <c r="B14" s="69"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="32"/>
       <c r="G14" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
@@ -4212,17 +4203,17 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="55"/>
+        <v>498</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
       <c r="G15" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
@@ -4232,17 +4223,17 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="56"/>
+        <v>499</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="32"/>
       <c r="G16" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
@@ -4252,21 +4243,21 @@
     </row>
     <row r="17" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>531</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>32</v>
+        <v>500</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>529</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="32"/>
       <c r="G17" s="29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
@@ -4276,17 +4267,17 @@
     </row>
     <row r="18" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+        <v>501</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="32"/>
       <c r="G18" s="29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
@@ -4296,17 +4287,17 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
+        <v>502</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="31" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="32"/>
       <c r="G19" s="29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
@@ -4316,17 +4307,17 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
+        <v>503</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="32"/>
       <c r="G20" s="29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
@@ -4336,17 +4327,17 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+        <v>504</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="32"/>
       <c r="G21" s="29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
@@ -4356,17 +4347,17 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+        <v>505</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="32"/>
       <c r="G22" s="29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
@@ -4376,21 +4367,21 @@
     </row>
     <row r="23" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>532</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>35</v>
+        <v>506</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>530</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>33</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="32"/>
       <c r="G23" s="29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
@@ -4400,17 +4391,17 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
+        <v>507</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="32"/>
       <c r="G24" s="29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
@@ -4420,17 +4411,17 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
+        <v>508</v>
+      </c>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="32"/>
       <c r="G25" s="29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
@@ -4440,17 +4431,17 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
+        <v>509</v>
+      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="32"/>
       <c r="G26" s="29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
@@ -4460,15 +4451,15 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
+        <v>510</v>
+      </c>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="32"/>
       <c r="G27" s="29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
@@ -4478,21 +4469,21 @@
     </row>
     <row r="28" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>533</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>39</v>
+        <v>511</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>531</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="32"/>
       <c r="G28" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
@@ -4502,17 +4493,17 @@
     </row>
     <row r="29" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
+        <v>512</v>
+      </c>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="32"/>
       <c r="G29" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
@@ -4522,17 +4513,17 @@
     </row>
     <row r="30" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
+        <v>513</v>
+      </c>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="32"/>
       <c r="G30" s="29" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="34"/>
@@ -4542,17 +4533,17 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
-        <v>516</v>
-      </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
+        <v>514</v>
+      </c>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="32"/>
       <c r="G31" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
@@ -4562,21 +4553,21 @@
     </row>
     <row r="32" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>534</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>42</v>
+        <v>515</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>532</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="32"/>
       <c r="G32" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
@@ -4586,17 +4577,17 @@
     </row>
     <row r="33" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
+        <v>516</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="32"/>
       <c r="G33" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
@@ -4606,17 +4597,17 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
+        <v>517</v>
+      </c>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="32"/>
       <c r="G34" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
@@ -4626,21 +4617,21 @@
     </row>
     <row r="35" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>535</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>47</v>
+        <v>518</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>533</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>45</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
       <c r="G35" s="29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
@@ -4650,17 +4641,17 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
+        <v>519</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="32"/>
       <c r="G36" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
@@ -4670,12 +4661,12 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
+        <v>520</v>
+      </c>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="32"/>
@@ -4688,17 +4679,17 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
+        <v>521</v>
+      </c>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="33"/>
       <c r="G38" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -4708,17 +4699,17 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="62"/>
+        <v>522</v>
+      </c>
+      <c r="B39" s="62"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="29" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
@@ -4727,19 +4718,19 @@
     </row>
     <row r="40" spans="1:12" ht="54" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="B40" s="62"/>
+        <v>523</v>
+      </c>
+      <c r="B40" s="63"/>
       <c r="C40" s="35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
       <c r="G40" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
@@ -4748,21 +4739,21 @@
     </row>
     <row r="41" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="B41" s="67" t="s">
-        <v>536</v>
-      </c>
-      <c r="C41" s="65" t="s">
+        <v>524</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>56</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>58</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
@@ -4771,56 +4762,56 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="66"/>
+        <v>525</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
     </row>
-    <row r="43" spans="1:12" s="71" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="69" t="s">
-        <v>537</v>
-      </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
+    <row r="43" spans="1:12" s="54" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="64" t="s">
+        <v>535</v>
+      </c>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="65" t="s">
-        <v>42</v>
+        <v>121</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>40</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
@@ -4829,17 +4820,17 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
-        <v>482</v>
-      </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="72"/>
+        <v>480</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
@@ -4848,17 +4839,17 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="33" t="s">
-        <v>483</v>
-      </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="72"/>
+        <v>481</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
       <c r="G46" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
@@ -4867,17 +4858,17 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="B47" s="73"/>
-      <c r="C47" s="72"/>
+        <v>482</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="33" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
@@ -4886,17 +4877,17 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
-        <v>485</v>
-      </c>
-      <c r="B48" s="73"/>
-      <c r="C48" s="72"/>
+        <v>483</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
@@ -4905,17 +4896,17 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="B49" s="73"/>
-      <c r="C49" s="72"/>
+        <v>484</v>
+      </c>
+      <c r="B49" s="43"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
@@ -4924,17 +4915,17 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="66"/>
+        <v>485</v>
+      </c>
+      <c r="B50" s="44"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
@@ -4943,21 +4934,21 @@
     </row>
     <row r="51" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="B51" s="67" t="s">
-        <v>539</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>62</v>
+        <v>486</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
@@ -4966,17 +4957,17 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="72"/>
+        <v>487</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
       <c r="G52" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H52" s="33"/>
       <c r="I52" s="33"/>
@@ -4985,17 +4976,17 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="66"/>
+        <v>488</v>
+      </c>
+      <c r="B53" s="44"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
       <c r="G53" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H53" s="33"/>
       <c r="I53" s="33"/>
@@ -5004,21 +4995,21 @@
     </row>
     <row r="54" spans="1:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="B54" s="67" t="s">
-        <v>540</v>
-      </c>
-      <c r="C54" s="65" t="s">
-        <v>67</v>
+        <v>489</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>538</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>65</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
       <c r="G54" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H54" s="33"/>
       <c r="I54" s="33"/>
@@ -5027,17 +5018,17 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="B55" s="73"/>
-      <c r="C55" s="72"/>
+        <v>490</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H55" s="33"/>
       <c r="I55" s="33"/>
@@ -5046,17 +5037,17 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
-        <v>493</v>
-      </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="66"/>
+        <v>491</v>
+      </c>
+      <c r="B56" s="44"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H56" s="33"/>
       <c r="I56" s="33"/>
@@ -5065,21 +5056,21 @@
     </row>
     <row r="57" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="B57" s="67" t="s">
-        <v>541</v>
-      </c>
-      <c r="C57" s="65" t="s">
-        <v>71</v>
+        <v>492</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>69</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
@@ -5088,17 +5079,17 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="B58" s="73"/>
-      <c r="C58" s="72"/>
+        <v>493</v>
+      </c>
+      <c r="B58" s="43"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H58" s="33"/>
       <c r="I58" s="33"/>
@@ -5107,17 +5098,17 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="66"/>
+        <v>494</v>
+      </c>
+      <c r="B59" s="44"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H59" s="33"/>
       <c r="I59" s="33"/>
@@ -5132,41 +5123,41 @@
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
       <c r="G60" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H60" s="33"/>
       <c r="I60" s="33"/>
       <c r="J60" s="33"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="1:12" s="71" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="74" t="s">
-        <v>542</v>
-      </c>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
-      <c r="L61" s="70"/>
+    <row r="61" spans="1:12" s="54" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
     </row>
     <row r="62" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="65" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>77</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E62" s="33"/>
       <c r="F62" s="33"/>
@@ -5178,17 +5169,17 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="B63" s="73"/>
-      <c r="C63" s="72"/>
+        <v>466</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="33"/>
@@ -5197,17 +5188,17 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="33" t="s">
-        <v>469</v>
-      </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="72"/>
+        <v>467</v>
+      </c>
+      <c r="B64" s="43"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E64" s="33"/>
       <c r="F64" s="33"/>
       <c r="G64" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H64" s="33"/>
       <c r="I64" s="33"/>
@@ -5216,17 +5207,17 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="B65" s="73"/>
-      <c r="C65" s="72"/>
+        <v>468</v>
+      </c>
+      <c r="B65" s="43"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E65" s="33"/>
       <c r="F65" s="33"/>
       <c r="G65" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H65" s="33"/>
       <c r="I65" s="33"/>
@@ -5235,17 +5226,17 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="B66" s="73"/>
-      <c r="C66" s="72"/>
+        <v>469</v>
+      </c>
+      <c r="B66" s="43"/>
+      <c r="C66" s="46"/>
       <c r="D66" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E66" s="33"/>
       <c r="F66" s="33"/>
       <c r="G66" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H66" s="33"/>
       <c r="I66" s="33"/>
@@ -5254,12 +5245,12 @@
     </row>
     <row r="67" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="B67" s="73"/>
-      <c r="C67" s="72"/>
+        <v>470</v>
+      </c>
+      <c r="B67" s="43"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E67" s="33"/>
       <c r="F67" s="33"/>
@@ -5271,17 +5262,17 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="B68" s="68"/>
-      <c r="C68" s="66"/>
+        <v>471</v>
+      </c>
+      <c r="B68" s="44"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E68" s="33"/>
       <c r="F68" s="33"/>
       <c r="G68" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H68" s="33"/>
       <c r="I68" s="33"/>
@@ -5290,22 +5281,22 @@
     </row>
     <row r="69" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="B69" s="67" t="s">
-        <v>544</v>
-      </c>
-      <c r="C69" s="65" t="s">
-        <v>88</v>
+        <v>472</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>86</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E69" s="33"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
       <c r="H69" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I69" s="33"/>
       <c r="J69" s="33"/>
@@ -5313,18 +5304,18 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="B70" s="68"/>
-      <c r="C70" s="66"/>
+        <v>473</v>
+      </c>
+      <c r="B70" s="44"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E70" s="33"/>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
       <c r="H70" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I70" s="33"/>
       <c r="J70" s="33"/>
@@ -5332,22 +5323,22 @@
     </row>
     <row r="71" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="B71" s="67" t="s">
-        <v>545</v>
-      </c>
-      <c r="C71" s="65" t="s">
-        <v>92</v>
+        <v>474</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>543</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>90</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
       <c r="H71" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I71" s="33"/>
       <c r="J71" s="33"/>
@@ -5355,18 +5346,18 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="B72" s="68"/>
-      <c r="C72" s="66"/>
+        <v>475</v>
+      </c>
+      <c r="B72" s="44"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
       <c r="H72" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I72" s="33"/>
       <c r="J72" s="33"/>
@@ -5374,22 +5365,22 @@
     </row>
     <row r="73" spans="1:11" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="B73" s="67" t="s">
-        <v>546</v>
-      </c>
-      <c r="C73" s="65" t="s">
-        <v>98</v>
+        <v>476</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
       <c r="H73" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I73" s="33"/>
       <c r="J73" s="33"/>
@@ -5397,18 +5388,18 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="B74" s="68"/>
-      <c r="C74" s="66"/>
+        <v>477</v>
+      </c>
+      <c r="B74" s="44"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
       <c r="H74" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I74" s="33"/>
       <c r="J74" s="33"/>
@@ -5416,22 +5407,22 @@
     </row>
     <row r="75" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="33" t="s">
-        <v>480</v>
-      </c>
-      <c r="B75" s="67" t="s">
-        <v>547</v>
-      </c>
-      <c r="C75" s="65" t="s">
-        <v>101</v>
+        <v>478</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>99</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
       <c r="H75" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I75" s="33"/>
       <c r="J75" s="33"/>
@@ -5439,55 +5430,55 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="B76" s="68"/>
-      <c r="C76" s="66"/>
+        <v>479</v>
+      </c>
+      <c r="B76" s="44"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E76" s="33"/>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
       <c r="H76" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I76" s="33"/>
       <c r="J76" s="33"/>
       <c r="K76" s="33"/>
     </row>
-    <row r="77" spans="1:11" s="71" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="75" t="s">
-        <v>543</v>
-      </c>
-      <c r="B77" s="76"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="76"/>
-      <c r="K77" s="76"/>
+    <row r="77" spans="1:11" s="54" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
     </row>
     <row r="78" spans="1:11" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="C78" s="65" t="s">
-        <v>598</v>
+        <v>102</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>596</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E78" s="33"/>
       <c r="F78" s="33"/>
       <c r="G78" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H78" s="33"/>
       <c r="I78" s="33"/>
@@ -5496,15 +5487,15 @@
     </row>
     <row r="79" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
-      <c r="B79" s="73"/>
-      <c r="C79" s="72"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="46"/>
       <c r="D79" s="33" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
       <c r="G79" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H79" s="33"/>
       <c r="I79" s="33"/>
@@ -5513,17 +5504,17 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="B80" s="73"/>
-      <c r="C80" s="72"/>
+        <v>447</v>
+      </c>
+      <c r="B80" s="43"/>
+      <c r="C80" s="46"/>
       <c r="D80" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E80" s="33"/>
       <c r="F80" s="33"/>
       <c r="G80" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H80" s="33"/>
       <c r="I80" s="33"/>
@@ -5532,17 +5523,17 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="B81" s="73"/>
-      <c r="C81" s="72"/>
+        <v>448</v>
+      </c>
+      <c r="B81" s="43"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E81" s="33"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H81" s="33"/>
       <c r="I81" s="33"/>
@@ -5551,17 +5542,17 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="B82" s="73"/>
-      <c r="C82" s="72"/>
+        <v>449</v>
+      </c>
+      <c r="B82" s="43"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E82" s="33"/>
       <c r="F82" s="33"/>
       <c r="G82" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H82" s="33"/>
       <c r="I82" s="33"/>
@@ -5570,17 +5561,17 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="B83" s="68"/>
-      <c r="C83" s="66"/>
+        <v>450</v>
+      </c>
+      <c r="B83" s="44"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E83" s="33"/>
       <c r="F83" s="33"/>
       <c r="G83" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H83" s="33"/>
       <c r="I83" s="33"/>
@@ -5589,21 +5580,21 @@
     </row>
     <row r="84" spans="1:11" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="B84" s="67" t="s">
-        <v>548</v>
-      </c>
-      <c r="C84" s="65" t="s">
-        <v>599</v>
+        <v>451</v>
+      </c>
+      <c r="B84" s="42" t="s">
+        <v>546</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>597</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E84" s="33"/>
       <c r="F84" s="33"/>
       <c r="G84" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H84" s="33"/>
       <c r="I84" s="33"/>
@@ -5612,17 +5603,17 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="B85" s="73"/>
-      <c r="C85" s="72"/>
+        <v>452</v>
+      </c>
+      <c r="B85" s="43"/>
+      <c r="C85" s="46"/>
       <c r="D85" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E85" s="33"/>
       <c r="F85" s="33"/>
       <c r="G85" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H85" s="33"/>
       <c r="I85" s="33"/>
@@ -5631,15 +5622,15 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="33"/>
-      <c r="B86" s="73"/>
-      <c r="C86" s="72"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="46"/>
       <c r="D86" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E86" s="33"/>
       <c r="F86" s="33"/>
       <c r="G86" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H86" s="33"/>
       <c r="I86" s="33"/>
@@ -5648,15 +5639,15 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="33"/>
-      <c r="B87" s="73"/>
-      <c r="C87" s="72"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="46"/>
       <c r="D87" s="35" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E87" s="33"/>
       <c r="F87" s="33"/>
       <c r="G87" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H87" s="33"/>
       <c r="I87" s="33"/>
@@ -5665,10 +5656,10 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="B88" s="68"/>
-      <c r="C88" s="66"/>
+        <v>453</v>
+      </c>
+      <c r="B88" s="44"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="33"/>
       <c r="E88" s="33"/>
       <c r="F88" s="33"/>
@@ -5680,21 +5671,21 @@
     </row>
     <row r="89" spans="1:11" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="B89" s="67" t="s">
-        <v>549</v>
-      </c>
-      <c r="C89" s="65" t="s">
-        <v>600</v>
+        <v>454</v>
+      </c>
+      <c r="B89" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>598</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E89" s="33"/>
       <c r="F89" s="33"/>
       <c r="G89" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H89" s="33"/>
       <c r="I89" s="33"/>
@@ -5703,17 +5694,17 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="B90" s="73"/>
-      <c r="C90" s="72"/>
+        <v>455</v>
+      </c>
+      <c r="B90" s="43"/>
+      <c r="C90" s="46"/>
       <c r="D90" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E90" s="33"/>
       <c r="F90" s="33"/>
       <c r="G90" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H90" s="33"/>
       <c r="I90" s="33"/>
@@ -5722,17 +5713,17 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="B91" s="73"/>
-      <c r="C91" s="72"/>
+        <v>456</v>
+      </c>
+      <c r="B91" s="43"/>
+      <c r="C91" s="46"/>
       <c r="D91" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E91" s="33"/>
       <c r="F91" s="33"/>
       <c r="G91" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H91" s="33"/>
       <c r="I91" s="33"/>
@@ -5741,17 +5732,17 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="B92" s="73"/>
-      <c r="C92" s="72"/>
+        <v>457</v>
+      </c>
+      <c r="B92" s="43"/>
+      <c r="C92" s="46"/>
       <c r="D92" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E92" s="33"/>
       <c r="F92" s="33"/>
       <c r="G92" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H92" s="33"/>
       <c r="I92" s="33"/>
@@ -5760,17 +5751,17 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="B93" s="73"/>
-      <c r="C93" s="72"/>
+        <v>458</v>
+      </c>
+      <c r="B93" s="43"/>
+      <c r="C93" s="46"/>
       <c r="D93" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E93" s="33"/>
       <c r="F93" s="33"/>
       <c r="G93" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H93" s="33"/>
       <c r="I93" s="33"/>
@@ -5779,17 +5770,17 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="B94" s="73"/>
-      <c r="C94" s="72"/>
+        <v>459</v>
+      </c>
+      <c r="B94" s="43"/>
+      <c r="C94" s="46"/>
       <c r="D94" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E94" s="33"/>
       <c r="F94" s="33"/>
       <c r="G94" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
@@ -5798,17 +5789,17 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="B95" s="68"/>
-      <c r="C95" s="66"/>
+        <v>460</v>
+      </c>
+      <c r="B95" s="44"/>
+      <c r="C95" s="47"/>
       <c r="D95" s="33" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E95" s="33"/>
       <c r="F95" s="33"/>
       <c r="G95" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H95" s="33"/>
       <c r="I95" s="33"/>
@@ -5817,21 +5808,21 @@
     </row>
     <row r="96" spans="1:11" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="B96" s="67" t="s">
-        <v>550</v>
-      </c>
-      <c r="C96" s="65" t="s">
+        <v>461</v>
+      </c>
+      <c r="B96" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="33" t="s">
         <v>116</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>118</v>
       </c>
       <c r="E96" s="33"/>
       <c r="F96" s="33"/>
       <c r="G96" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H96" s="33"/>
       <c r="I96" s="33"/>
@@ -5840,17 +5831,17 @@
     </row>
     <row r="97" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="B97" s="73"/>
-      <c r="C97" s="72"/>
+        <v>462</v>
+      </c>
+      <c r="B97" s="43"/>
+      <c r="C97" s="46"/>
       <c r="D97" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E97" s="33"/>
       <c r="F97" s="33"/>
       <c r="G97" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H97" s="33"/>
       <c r="I97" s="33"/>
@@ -5859,17 +5850,17 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="B98" s="68"/>
-      <c r="C98" s="66"/>
+        <v>463</v>
+      </c>
+      <c r="B98" s="44"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E98" s="33"/>
       <c r="F98" s="33"/>
       <c r="G98" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H98" s="33"/>
       <c r="I98" s="33"/>
@@ -5878,21 +5869,21 @@
     </row>
     <row r="99" spans="1:12" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="B99" s="67" t="s">
-        <v>551</v>
-      </c>
-      <c r="C99" s="65" t="s">
-        <v>601</v>
+        <v>464</v>
+      </c>
+      <c r="B99" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="C99" s="45" t="s">
+        <v>599</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E99" s="33"/>
       <c r="F99" s="33"/>
       <c r="G99" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H99" s="33"/>
       <c r="I99" s="33"/>
@@ -5901,17 +5892,17 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="B100" s="73"/>
-      <c r="C100" s="72"/>
+        <v>465</v>
+      </c>
+      <c r="B100" s="43"/>
+      <c r="C100" s="46"/>
       <c r="D100" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E100" s="33"/>
       <c r="F100" s="33"/>
       <c r="G100" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H100" s="33"/>
       <c r="I100" s="33"/>
@@ -5920,56 +5911,56 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="B101" s="68"/>
-      <c r="C101" s="66"/>
+        <v>465</v>
+      </c>
+      <c r="B101" s="44"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E101" s="33"/>
       <c r="F101" s="33"/>
       <c r="G101" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H101" s="33"/>
       <c r="I101" s="33"/>
       <c r="J101" s="33"/>
       <c r="K101" s="33"/>
     </row>
-    <row r="102" spans="1:12" s="71" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="77" t="s">
-        <v>552</v>
-      </c>
-      <c r="B102" s="70"/>
-      <c r="C102" s="70"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="70"/>
-      <c r="H102" s="70"/>
-      <c r="I102" s="70"/>
-      <c r="J102" s="70"/>
-      <c r="K102" s="70"/>
-      <c r="L102" s="70"/>
+    <row r="102" spans="1:12" s="54" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="53"/>
+      <c r="K102" s="53"/>
+      <c r="L102" s="53"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="42" t="s">
+        <v>551</v>
+      </c>
+      <c r="C103" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="B103" s="67" t="s">
-        <v>553</v>
-      </c>
-      <c r="C103" s="65" t="s">
-        <v>124</v>
-      </c>
       <c r="D103" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E103" s="33"/>
       <c r="F103" s="33"/>
       <c r="G103" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H103" s="33"/>
       <c r="I103" s="33"/>
@@ -5978,17 +5969,17 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="B104" s="73"/>
-      <c r="C104" s="72"/>
+        <v>433</v>
+      </c>
+      <c r="B104" s="43"/>
+      <c r="C104" s="46"/>
       <c r="D104" s="33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E104" s="33"/>
       <c r="F104" s="33"/>
       <c r="G104" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -5997,17 +5988,17 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="B105" s="73"/>
-      <c r="C105" s="72"/>
+        <v>434</v>
+      </c>
+      <c r="B105" s="43"/>
+      <c r="C105" s="46"/>
       <c r="D105" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E105" s="33"/>
       <c r="F105" s="33"/>
       <c r="G105" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H105" s="33"/>
       <c r="I105" s="33"/>
@@ -6016,17 +6007,17 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="B106" s="73"/>
-      <c r="C106" s="72"/>
+        <v>435</v>
+      </c>
+      <c r="B106" s="43"/>
+      <c r="C106" s="46"/>
       <c r="D106" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E106" s="33"/>
       <c r="F106" s="33"/>
       <c r="G106" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
@@ -6035,17 +6026,17 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="B107" s="73"/>
-      <c r="C107" s="72"/>
+        <v>436</v>
+      </c>
+      <c r="B107" s="43"/>
+      <c r="C107" s="46"/>
       <c r="D107" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E107" s="33"/>
       <c r="F107" s="33"/>
       <c r="G107" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H107" s="33"/>
       <c r="I107" s="33"/>
@@ -6054,17 +6045,17 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="B108" s="68"/>
-      <c r="C108" s="66"/>
+        <v>437</v>
+      </c>
+      <c r="B108" s="44"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E108" s="33"/>
       <c r="F108" s="33"/>
       <c r="G108" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H108" s="33"/>
       <c r="I108" s="33"/>
@@ -6073,21 +6064,21 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="B109" s="67" t="s">
-        <v>554</v>
-      </c>
-      <c r="C109" s="65" t="s">
-        <v>161</v>
+        <v>438</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="C109" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E109" s="33"/>
       <c r="F109" s="33"/>
       <c r="G109" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H109" s="33"/>
       <c r="I109" s="33"/>
@@ -6096,17 +6087,17 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="B110" s="73"/>
-      <c r="C110" s="72"/>
+        <v>439</v>
+      </c>
+      <c r="B110" s="43"/>
+      <c r="C110" s="46"/>
       <c r="D110" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E110" s="33"/>
       <c r="F110" s="33"/>
       <c r="G110" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H110" s="33"/>
       <c r="I110" s="33"/>
@@ -6115,17 +6106,17 @@
     </row>
     <row r="111" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="B111" s="68"/>
-      <c r="C111" s="66"/>
+        <v>440</v>
+      </c>
+      <c r="B111" s="44"/>
+      <c r="C111" s="47"/>
       <c r="D111" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E111" s="33"/>
       <c r="F111" s="33"/>
       <c r="G111" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H111" s="33"/>
       <c r="I111" s="33"/>
@@ -6134,21 +6125,21 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="B112" s="67" t="s">
-        <v>555</v>
-      </c>
-      <c r="C112" s="65" t="s">
-        <v>125</v>
+        <v>441</v>
+      </c>
+      <c r="B112" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="C112" s="45" t="s">
+        <v>123</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E112" s="33"/>
       <c r="F112" s="33"/>
       <c r="G112" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H112" s="33"/>
       <c r="I112" s="33"/>
@@ -6157,17 +6148,17 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="B113" s="73"/>
-      <c r="C113" s="72"/>
+        <v>442</v>
+      </c>
+      <c r="B113" s="43"/>
+      <c r="C113" s="46"/>
       <c r="D113" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E113" s="33"/>
       <c r="F113" s="33"/>
       <c r="G113" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H113" s="33"/>
       <c r="I113" s="33"/>
@@ -6176,17 +6167,17 @@
     </row>
     <row r="114" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="B114" s="68"/>
-      <c r="C114" s="66"/>
+        <v>443</v>
+      </c>
+      <c r="B114" s="44"/>
+      <c r="C114" s="47"/>
       <c r="D114" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E114" s="33"/>
       <c r="F114" s="33"/>
       <c r="G114" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H114" s="33"/>
       <c r="I114" s="33"/>
@@ -6195,21 +6186,21 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="B115" s="67" t="s">
-        <v>551</v>
-      </c>
-      <c r="C115" s="65" t="s">
-        <v>126</v>
+        <v>444</v>
+      </c>
+      <c r="B115" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="C115" s="45" t="s">
+        <v>124</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E115" s="33"/>
       <c r="F115" s="33"/>
       <c r="G115" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H115" s="33"/>
       <c r="I115" s="33"/>
@@ -6218,17 +6209,17 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="B116" s="73"/>
-      <c r="C116" s="72"/>
+        <v>445</v>
+      </c>
+      <c r="B116" s="43"/>
+      <c r="C116" s="46"/>
       <c r="D116" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E116" s="33"/>
       <c r="F116" s="33"/>
       <c r="G116" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H116" s="33"/>
       <c r="I116" s="33"/>
@@ -6237,55 +6228,55 @@
     </row>
     <row r="117" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="B117" s="68"/>
-      <c r="C117" s="66"/>
+        <v>446</v>
+      </c>
+      <c r="B117" s="44"/>
+      <c r="C117" s="47"/>
       <c r="D117" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E117" s="33"/>
       <c r="F117" s="33"/>
       <c r="G117" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H117" s="33"/>
       <c r="I117" s="33"/>
       <c r="J117" s="33"/>
       <c r="K117" s="33"/>
     </row>
-    <row r="118" spans="1:11" s="71" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="79" t="s">
-        <v>556</v>
-      </c>
-      <c r="B118" s="76"/>
-      <c r="C118" s="76"/>
-      <c r="D118" s="76"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="76"/>
-      <c r="H118" s="76"/>
-      <c r="I118" s="76"/>
-      <c r="J118" s="76"/>
-      <c r="K118" s="76"/>
+    <row r="118" spans="1:11" s="54" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="56" t="s">
+        <v>554</v>
+      </c>
+      <c r="B118" s="55"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="55"/>
+      <c r="K118" s="55"/>
     </row>
     <row r="119" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="B119" s="67" t="s">
+      <c r="D119" s="33" t="s">
         <v>129</v>
-      </c>
-      <c r="C119" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D119" s="33" t="s">
-        <v>131</v>
       </c>
       <c r="E119" s="33"/>
       <c r="F119" s="33"/>
       <c r="G119" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H119" s="33"/>
       <c r="I119" s="33"/>
@@ -6294,17 +6285,17 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B120" s="73"/>
-      <c r="C120" s="72"/>
+        <v>133</v>
+      </c>
+      <c r="B120" s="43"/>
+      <c r="C120" s="46"/>
       <c r="D120" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E120" s="33"/>
       <c r="F120" s="33"/>
       <c r="G120" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H120" s="33"/>
       <c r="I120" s="33"/>
@@ -6313,17 +6304,17 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="B121" s="73"/>
-      <c r="C121" s="72"/>
+        <v>134</v>
+      </c>
+      <c r="B121" s="43"/>
+      <c r="C121" s="46"/>
       <c r="D121" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E121" s="33"/>
       <c r="F121" s="33"/>
       <c r="G121" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H121" s="33"/>
       <c r="I121" s="33"/>
@@ -6332,17 +6323,17 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B122" s="73"/>
-      <c r="C122" s="72"/>
+        <v>135</v>
+      </c>
+      <c r="B122" s="43"/>
+      <c r="C122" s="46"/>
       <c r="D122" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E122" s="33"/>
       <c r="F122" s="33"/>
       <c r="G122" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H122" s="33"/>
       <c r="I122" s="33"/>
@@ -6351,17 +6342,17 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B123" s="73"/>
-      <c r="C123" s="72"/>
+        <v>136</v>
+      </c>
+      <c r="B123" s="43"/>
+      <c r="C123" s="46"/>
       <c r="D123" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E123" s="33"/>
       <c r="F123" s="33"/>
       <c r="G123" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H123" s="33"/>
       <c r="I123" s="33"/>
@@ -6370,17 +6361,17 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B124" s="73"/>
-      <c r="C124" s="72"/>
+        <v>137</v>
+      </c>
+      <c r="B124" s="43"/>
+      <c r="C124" s="46"/>
       <c r="D124" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E124" s="33"/>
       <c r="F124" s="33"/>
       <c r="G124" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H124" s="33"/>
       <c r="I124" s="33"/>
@@ -6389,17 +6380,17 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B125" s="68"/>
-      <c r="C125" s="66"/>
+        <v>138</v>
+      </c>
+      <c r="B125" s="44"/>
+      <c r="C125" s="47"/>
       <c r="D125" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E125" s="33"/>
       <c r="F125" s="33"/>
       <c r="G125" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H125" s="33"/>
       <c r="I125" s="33"/>
@@ -6408,21 +6399,21 @@
     </row>
     <row r="126" spans="1:11" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="B126" s="67" t="s">
-        <v>569</v>
-      </c>
-      <c r="C126" s="65" t="s">
-        <v>142</v>
+        <v>426</v>
+      </c>
+      <c r="B126" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="C126" s="45" t="s">
+        <v>140</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E126" s="33"/>
       <c r="F126" s="33"/>
       <c r="G126" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H126" s="33"/>
       <c r="I126" s="33"/>
@@ -6431,17 +6422,17 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="B127" s="68"/>
-      <c r="C127" s="66"/>
+        <v>427</v>
+      </c>
+      <c r="B127" s="44"/>
+      <c r="C127" s="47"/>
       <c r="D127" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E127" s="33"/>
       <c r="F127" s="33"/>
       <c r="G127" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H127" s="33"/>
       <c r="I127" s="33"/>
@@ -6450,21 +6441,21 @@
     </row>
     <row r="128" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="B128" s="67" t="s">
-        <v>570</v>
-      </c>
-      <c r="C128" s="65" t="s">
-        <v>145</v>
+        <v>428</v>
+      </c>
+      <c r="B128" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="C128" s="45" t="s">
+        <v>143</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E128" s="33"/>
       <c r="F128" s="33"/>
       <c r="G128" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H128" s="33"/>
       <c r="I128" s="33"/>
@@ -6473,17 +6464,17 @@
     </row>
     <row r="129" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B129" s="73"/>
-      <c r="C129" s="72"/>
+        <v>429</v>
+      </c>
+      <c r="B129" s="43"/>
+      <c r="C129" s="46"/>
       <c r="D129" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E129" s="33"/>
       <c r="F129" s="33"/>
       <c r="G129" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H129" s="33"/>
       <c r="I129" s="33"/>
@@ -6492,17 +6483,17 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="B130" s="68"/>
-      <c r="C130" s="66"/>
+        <v>430</v>
+      </c>
+      <c r="B130" s="44"/>
+      <c r="C130" s="47"/>
       <c r="D130" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E130" s="33"/>
       <c r="F130" s="33"/>
       <c r="G130" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H130" s="33"/>
       <c r="I130" s="33"/>
@@ -6511,21 +6502,21 @@
     </row>
     <row r="131" spans="1:11" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="B131" s="67" t="s">
-        <v>571</v>
-      </c>
-      <c r="C131" s="65" t="s">
-        <v>148</v>
+        <v>431</v>
+      </c>
+      <c r="B131" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C131" s="45" t="s">
+        <v>146</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E131" s="33"/>
       <c r="F131" s="33"/>
       <c r="G131" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H131" s="33"/>
       <c r="I131" s="33"/>
@@ -6534,55 +6525,55 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="33" t="s">
-        <v>434</v>
-      </c>
-      <c r="B132" s="68"/>
-      <c r="C132" s="66"/>
+        <v>432</v>
+      </c>
+      <c r="B132" s="44"/>
+      <c r="C132" s="47"/>
       <c r="D132" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E132" s="33"/>
       <c r="F132" s="33"/>
       <c r="G132" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H132" s="33"/>
       <c r="I132" s="33"/>
       <c r="J132" s="33"/>
       <c r="K132" s="33"/>
     </row>
-    <row r="133" spans="1:11" s="71" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="78" t="s">
-        <v>557</v>
-      </c>
-      <c r="B133" s="76"/>
-      <c r="C133" s="76"/>
-      <c r="D133" s="76"/>
-      <c r="E133" s="76"/>
-      <c r="F133" s="76"/>
-      <c r="G133" s="76"/>
-      <c r="H133" s="76"/>
-      <c r="I133" s="76"/>
-      <c r="J133" s="76"/>
-      <c r="K133" s="76"/>
+    <row r="133" spans="1:11" s="54" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="57" t="s">
+        <v>555</v>
+      </c>
+      <c r="B133" s="55"/>
+      <c r="C133" s="55"/>
+      <c r="D133" s="55"/>
+      <c r="E133" s="55"/>
+      <c r="F133" s="55"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="55"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="55"/>
+      <c r="K133" s="55"/>
     </row>
     <row r="134" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B134" s="67" t="s">
-        <v>572</v>
-      </c>
-      <c r="C134" s="65" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="B134" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="C134" s="45" t="s">
+        <v>151</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E134" s="33"/>
       <c r="F134" s="33"/>
       <c r="G134" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H134" s="33"/>
       <c r="I134" s="33"/>
@@ -6591,17 +6582,17 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B135" s="73"/>
-      <c r="C135" s="72"/>
+        <v>155</v>
+      </c>
+      <c r="B135" s="43"/>
+      <c r="C135" s="46"/>
       <c r="D135" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E135" s="33"/>
       <c r="F135" s="33"/>
       <c r="G135" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H135" s="33"/>
       <c r="I135" s="33"/>
@@ -6610,17 +6601,17 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B136" s="73"/>
-      <c r="C136" s="72"/>
+        <v>156</v>
+      </c>
+      <c r="B136" s="43"/>
+      <c r="C136" s="46"/>
       <c r="D136" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E136" s="33"/>
       <c r="F136" s="33"/>
       <c r="G136" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H136" s="33"/>
       <c r="I136" s="33"/>
@@ -6629,17 +6620,17 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B137" s="68"/>
-      <c r="C137" s="66"/>
+        <v>157</v>
+      </c>
+      <c r="B137" s="44"/>
+      <c r="C137" s="47"/>
       <c r="D137" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E137" s="33"/>
       <c r="F137" s="33"/>
       <c r="G137" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H137" s="33"/>
       <c r="I137" s="33"/>
@@ -6648,7 +6639,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B138" s="33"/>
       <c r="C138" s="33"/>
@@ -6656,7 +6647,7 @@
       <c r="E138" s="33"/>
       <c r="F138" s="33"/>
       <c r="G138" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H138" s="33"/>
       <c r="I138" s="33"/>
@@ -6665,7 +6656,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B139" s="33"/>
       <c r="C139" s="33"/>
@@ -6673,45 +6664,45 @@
       <c r="E139" s="33"/>
       <c r="F139" s="33"/>
       <c r="G139" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H139" s="33"/>
       <c r="I139" s="33"/>
       <c r="J139" s="33"/>
       <c r="K139" s="33"/>
     </row>
-    <row r="140" spans="1:11" s="71" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="79" t="s">
-        <v>558</v>
-      </c>
-      <c r="B140" s="76"/>
-      <c r="C140" s="76"/>
-      <c r="D140" s="76"/>
-      <c r="E140" s="76"/>
-      <c r="F140" s="76"/>
-      <c r="G140" s="76"/>
-      <c r="H140" s="76"/>
-      <c r="I140" s="76"/>
-      <c r="J140" s="76"/>
-      <c r="K140" s="76"/>
+    <row r="140" spans="1:11" s="54" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="B140" s="55"/>
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="55"/>
+      <c r="G140" s="55"/>
+      <c r="H140" s="55"/>
+      <c r="I140" s="55"/>
+      <c r="J140" s="55"/>
+      <c r="K140" s="55"/>
     </row>
     <row r="141" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="42" t="s">
+        <v>571</v>
+      </c>
+      <c r="C141" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="B141" s="67" t="s">
-        <v>573</v>
-      </c>
-      <c r="C141" s="65" t="s">
-        <v>162</v>
-      </c>
       <c r="D141" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E141" s="33"/>
       <c r="F141" s="33"/>
       <c r="G141" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H141" s="33"/>
       <c r="I141" s="33"/>
@@ -6720,17 +6711,17 @@
     </row>
     <row r="142" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="B142" s="73"/>
-      <c r="C142" s="72"/>
+        <v>400</v>
+      </c>
+      <c r="B142" s="43"/>
+      <c r="C142" s="46"/>
       <c r="D142" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E142" s="33"/>
       <c r="F142" s="33"/>
       <c r="G142" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H142" s="33"/>
       <c r="I142" s="33"/>
@@ -6739,17 +6730,17 @@
     </row>
     <row r="143" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="B143" s="73"/>
-      <c r="C143" s="72"/>
+        <v>401</v>
+      </c>
+      <c r="B143" s="43"/>
+      <c r="C143" s="46"/>
       <c r="D143" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E143" s="33"/>
       <c r="F143" s="33"/>
       <c r="G143" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H143" s="33"/>
       <c r="I143" s="33"/>
@@ -6758,17 +6749,17 @@
     </row>
     <row r="144" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="B144" s="68"/>
-      <c r="C144" s="66"/>
+        <v>402</v>
+      </c>
+      <c r="B144" s="44"/>
+      <c r="C144" s="47"/>
       <c r="D144" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E144" s="33"/>
       <c r="F144" s="33"/>
       <c r="G144" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H144" s="33"/>
       <c r="I144" s="33"/>
@@ -6777,22 +6768,22 @@
     </row>
     <row r="145" spans="1:11" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="B145" s="67" t="s">
-        <v>574</v>
-      </c>
-      <c r="C145" s="65" t="s">
-        <v>168</v>
+        <v>403</v>
+      </c>
+      <c r="B145" s="42" t="s">
+        <v>572</v>
+      </c>
+      <c r="C145" s="45" t="s">
+        <v>166</v>
       </c>
       <c r="D145" s="35" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E145" s="33"/>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
       <c r="H145" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I145" s="33"/>
       <c r="J145" s="33"/>
@@ -6800,17 +6791,17 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="B146" s="68"/>
-      <c r="C146" s="66"/>
+        <v>404</v>
+      </c>
+      <c r="B146" s="44"/>
+      <c r="C146" s="47"/>
       <c r="D146" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E146" s="33"/>
       <c r="F146" s="33"/>
       <c r="G146" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H146" s="33"/>
       <c r="I146" s="33"/>
@@ -6819,21 +6810,21 @@
     </row>
     <row r="147" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="B147" s="67" t="s">
-        <v>575</v>
-      </c>
-      <c r="C147" s="65" t="s">
-        <v>170</v>
+        <v>405</v>
+      </c>
+      <c r="B147" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="C147" s="45" t="s">
+        <v>168</v>
       </c>
       <c r="D147" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E147" s="33"/>
       <c r="F147" s="33"/>
       <c r="G147" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H147" s="33"/>
       <c r="I147" s="33"/>
@@ -6842,18 +6833,18 @@
     </row>
     <row r="148" spans="1:11" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="B148" s="73"/>
-      <c r="C148" s="72"/>
+        <v>406</v>
+      </c>
+      <c r="B148" s="43"/>
+      <c r="C148" s="46"/>
       <c r="D148" s="36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E148" s="33"/>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
       <c r="H148" s="33" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I148" s="33"/>
       <c r="J148" s="33"/>
@@ -6861,17 +6852,17 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="B149" s="68"/>
-      <c r="C149" s="66"/>
+        <v>407</v>
+      </c>
+      <c r="B149" s="44"/>
+      <c r="C149" s="47"/>
       <c r="D149" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E149" s="33"/>
       <c r="F149" s="33"/>
       <c r="G149" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H149" s="33"/>
       <c r="I149" s="33"/>
@@ -6880,21 +6871,21 @@
     </row>
     <row r="150" spans="1:11" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="B150" s="67" t="s">
-        <v>576</v>
-      </c>
-      <c r="C150" s="65" t="s">
-        <v>173</v>
+        <v>408</v>
+      </c>
+      <c r="B150" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="C150" s="45" t="s">
+        <v>171</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E150" s="33"/>
       <c r="F150" s="33"/>
       <c r="G150" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H150" s="33"/>
       <c r="I150" s="33"/>
@@ -6903,17 +6894,17 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="B151" s="68"/>
-      <c r="C151" s="66"/>
+        <v>409</v>
+      </c>
+      <c r="B151" s="44"/>
+      <c r="C151" s="47"/>
       <c r="D151" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E151" s="33"/>
       <c r="F151" s="33"/>
       <c r="G151" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H151" s="33"/>
       <c r="I151" s="33"/>
@@ -6922,21 +6913,21 @@
     </row>
     <row r="152" spans="1:11" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="B152" s="67" t="s">
-        <v>577</v>
-      </c>
-      <c r="C152" s="65" t="s">
-        <v>175</v>
+        <v>410</v>
+      </c>
+      <c r="B152" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="C152" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E152" s="33"/>
       <c r="F152" s="33"/>
       <c r="G152" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H152" s="33"/>
       <c r="I152" s="33"/>
@@ -6945,17 +6936,17 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="B153" s="68"/>
-      <c r="C153" s="66"/>
+        <v>411</v>
+      </c>
+      <c r="B153" s="44"/>
+      <c r="C153" s="47"/>
       <c r="D153" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E153" s="33"/>
       <c r="F153" s="33"/>
       <c r="G153" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H153" s="33"/>
       <c r="I153" s="33"/>
@@ -6964,21 +6955,21 @@
     </row>
     <row r="154" spans="1:11" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="B154" s="67" t="s">
-        <v>578</v>
-      </c>
-      <c r="C154" s="65" t="s">
-        <v>177</v>
+        <v>412</v>
+      </c>
+      <c r="B154" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="C154" s="45" t="s">
+        <v>175</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E154" s="33"/>
       <c r="F154" s="33"/>
       <c r="G154" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H154" s="33"/>
       <c r="I154" s="33"/>
@@ -6987,17 +6978,17 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="B155" s="68"/>
-      <c r="C155" s="66"/>
+        <v>413</v>
+      </c>
+      <c r="B155" s="44"/>
+      <c r="C155" s="47"/>
       <c r="D155" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E155" s="33"/>
       <c r="F155" s="33"/>
       <c r="G155" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H155" s="33"/>
       <c r="I155" s="33"/>
@@ -7006,21 +6997,21 @@
     </row>
     <row r="156" spans="1:11" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="B156" s="67" t="s">
-        <v>579</v>
-      </c>
-      <c r="C156" s="65" t="s">
-        <v>180</v>
+        <v>414</v>
+      </c>
+      <c r="B156" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="C156" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E156" s="33"/>
       <c r="F156" s="33"/>
       <c r="G156" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H156" s="33"/>
       <c r="I156" s="33"/>
@@ -7029,17 +7020,17 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="B157" s="68"/>
-      <c r="C157" s="66"/>
+        <v>415</v>
+      </c>
+      <c r="B157" s="44"/>
+      <c r="C157" s="47"/>
       <c r="D157" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E157" s="33"/>
       <c r="F157" s="33"/>
       <c r="G157" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H157" s="33"/>
       <c r="I157" s="33"/>
@@ -7048,21 +7039,21 @@
     </row>
     <row r="158" spans="1:11" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="B158" s="67" t="s">
-        <v>580</v>
-      </c>
-      <c r="C158" s="65" t="s">
-        <v>182</v>
+        <v>416</v>
+      </c>
+      <c r="B158" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="C158" s="45" t="s">
+        <v>180</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E158" s="33"/>
       <c r="F158" s="33"/>
       <c r="G158" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H158" s="33"/>
       <c r="I158" s="33"/>
@@ -7071,17 +7062,17 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="B159" s="68"/>
-      <c r="C159" s="66"/>
+        <v>417</v>
+      </c>
+      <c r="B159" s="44"/>
+      <c r="C159" s="47"/>
       <c r="D159" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E159" s="33"/>
       <c r="F159" s="33"/>
       <c r="G159" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H159" s="33"/>
       <c r="I159" s="33"/>
@@ -7090,21 +7081,21 @@
     </row>
     <row r="160" spans="1:11" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="B160" s="67" t="s">
-        <v>549</v>
-      </c>
-      <c r="C160" s="65" t="s">
-        <v>184</v>
+        <v>418</v>
+      </c>
+      <c r="B160" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="C160" s="45" t="s">
+        <v>182</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E160" s="33"/>
       <c r="F160" s="33"/>
       <c r="G160" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H160" s="33"/>
       <c r="I160" s="33"/>
@@ -7113,17 +7104,17 @@
     </row>
     <row r="161" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="B161" s="73"/>
-      <c r="C161" s="72"/>
+        <v>419</v>
+      </c>
+      <c r="B161" s="43"/>
+      <c r="C161" s="46"/>
       <c r="D161" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E161" s="33"/>
       <c r="F161" s="33"/>
       <c r="G161" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H161" s="33"/>
       <c r="I161" s="33"/>
@@ -7132,17 +7123,17 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="B162" s="73"/>
-      <c r="C162" s="72"/>
+        <v>420</v>
+      </c>
+      <c r="B162" s="43"/>
+      <c r="C162" s="46"/>
       <c r="D162" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E162" s="33"/>
       <c r="F162" s="33"/>
       <c r="G162" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H162" s="33"/>
       <c r="I162" s="33"/>
@@ -7151,17 +7142,17 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="B163" s="73"/>
-      <c r="C163" s="72"/>
+        <v>421</v>
+      </c>
+      <c r="B163" s="43"/>
+      <c r="C163" s="46"/>
       <c r="D163" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E163" s="33"/>
       <c r="F163" s="33"/>
       <c r="G163" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H163" s="33"/>
       <c r="I163" s="33"/>
@@ -7170,17 +7161,17 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="B164" s="73"/>
-      <c r="C164" s="72"/>
+        <v>422</v>
+      </c>
+      <c r="B164" s="43"/>
+      <c r="C164" s="46"/>
       <c r="D164" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E164" s="33"/>
       <c r="F164" s="33"/>
       <c r="G164" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H164" s="33"/>
       <c r="I164" s="33"/>
@@ -7189,55 +7180,55 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="B165" s="68"/>
-      <c r="C165" s="66"/>
+        <v>423</v>
+      </c>
+      <c r="B165" s="44"/>
+      <c r="C165" s="47"/>
       <c r="D165" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E165" s="33"/>
       <c r="F165" s="33"/>
       <c r="G165" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H165" s="33"/>
       <c r="I165" s="33"/>
       <c r="J165" s="33"/>
       <c r="K165" s="33"/>
     </row>
-    <row r="166" spans="1:11" s="71" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="80" t="s">
-        <v>559</v>
-      </c>
-      <c r="B166" s="76"/>
-      <c r="C166" s="76"/>
-      <c r="D166" s="76"/>
-      <c r="E166" s="76"/>
-      <c r="F166" s="76"/>
-      <c r="G166" s="76"/>
-      <c r="H166" s="76"/>
-      <c r="I166" s="76"/>
-      <c r="J166" s="76"/>
-      <c r="K166" s="76"/>
+    <row r="166" spans="1:11" s="54" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="48" t="s">
+        <v>557</v>
+      </c>
+      <c r="B166" s="55"/>
+      <c r="C166" s="55"/>
+      <c r="D166" s="55"/>
+      <c r="E166" s="55"/>
+      <c r="F166" s="55"/>
+      <c r="G166" s="55"/>
+      <c r="H166" s="55"/>
+      <c r="I166" s="55"/>
+      <c r="J166" s="55"/>
+      <c r="K166" s="55"/>
     </row>
     <row r="167" spans="1:11" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B167" s="67" t="s">
-        <v>581</v>
-      </c>
-      <c r="C167" s="65" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="B167" s="42" t="s">
+        <v>579</v>
+      </c>
+      <c r="C167" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E167" s="33"/>
       <c r="F167" s="33"/>
       <c r="G167" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H167" s="33"/>
       <c r="I167" s="33"/>
@@ -7246,17 +7237,17 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="B168" s="73"/>
-      <c r="C168" s="72"/>
+        <v>382</v>
+      </c>
+      <c r="B168" s="43"/>
+      <c r="C168" s="46"/>
       <c r="D168" s="33" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E168" s="33"/>
       <c r="F168" s="33"/>
       <c r="G168" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H168" s="33"/>
       <c r="I168" s="33"/>
@@ -7265,10 +7256,10 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="B169" s="73"/>
-      <c r="C169" s="72"/>
+        <v>383</v>
+      </c>
+      <c r="B169" s="43"/>
+      <c r="C169" s="46"/>
       <c r="D169" s="36"/>
       <c r="E169" s="33"/>
       <c r="F169" s="33"/>
@@ -7280,17 +7271,17 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="B170" s="73"/>
-      <c r="C170" s="72"/>
+        <v>384</v>
+      </c>
+      <c r="B170" s="43"/>
+      <c r="C170" s="46"/>
       <c r="D170" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E170" s="33"/>
       <c r="F170" s="33"/>
       <c r="G170" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H170" s="33"/>
       <c r="I170" s="33"/>
@@ -7299,17 +7290,17 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="B171" s="68"/>
-      <c r="C171" s="66"/>
+        <v>385</v>
+      </c>
+      <c r="B171" s="44"/>
+      <c r="C171" s="47"/>
       <c r="D171" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E171" s="33"/>
       <c r="F171" s="33"/>
       <c r="G171" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H171" s="33"/>
       <c r="I171" s="33"/>
@@ -7318,21 +7309,21 @@
     </row>
     <row r="172" spans="1:11" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="B172" s="67" t="s">
-        <v>582</v>
-      </c>
-      <c r="C172" s="65" t="s">
-        <v>190</v>
+        <v>386</v>
+      </c>
+      <c r="B172" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="C172" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="D172" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E172" s="33"/>
       <c r="F172" s="33"/>
       <c r="G172" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H172" s="33"/>
       <c r="I172" s="33"/>
@@ -7341,17 +7332,17 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="B173" s="73"/>
-      <c r="C173" s="72"/>
+        <v>387</v>
+      </c>
+      <c r="B173" s="43"/>
+      <c r="C173" s="46"/>
       <c r="D173" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E173" s="33"/>
       <c r="F173" s="33"/>
       <c r="G173" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H173" s="33"/>
       <c r="I173" s="33"/>
@@ -7360,17 +7351,17 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="B174" s="68"/>
-      <c r="C174" s="66"/>
+        <v>388</v>
+      </c>
+      <c r="B174" s="44"/>
+      <c r="C174" s="47"/>
       <c r="D174" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E174" s="33"/>
       <c r="F174" s="33"/>
       <c r="G174" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H174" s="33"/>
       <c r="I174" s="33"/>
@@ -7379,21 +7370,21 @@
     </row>
     <row r="175" spans="1:11" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="B175" s="67" t="s">
-        <v>583</v>
-      </c>
-      <c r="C175" s="65" t="s">
-        <v>197</v>
+        <v>389</v>
+      </c>
+      <c r="B175" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="C175" s="45" t="s">
+        <v>195</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E175" s="33"/>
       <c r="F175" s="33"/>
       <c r="G175" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H175" s="33"/>
       <c r="I175" s="33"/>
@@ -7402,17 +7393,17 @@
     </row>
     <row r="176" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A176" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="B176" s="68"/>
-      <c r="C176" s="66"/>
+        <v>390</v>
+      </c>
+      <c r="B176" s="44"/>
+      <c r="C176" s="47"/>
       <c r="D176" s="35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E176" s="33"/>
       <c r="F176" s="33"/>
       <c r="G176" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H176" s="33"/>
       <c r="I176" s="33"/>
@@ -7421,21 +7412,21 @@
     </row>
     <row r="177" spans="1:12" ht="234" x14ac:dyDescent="0.2">
       <c r="A177" s="33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E177" s="33"/>
       <c r="F177" s="33"/>
       <c r="G177" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H177" s="33"/>
       <c r="I177" s="33"/>
@@ -7444,21 +7435,21 @@
     </row>
     <row r="178" spans="1:12" ht="324" x14ac:dyDescent="0.2">
       <c r="A178" s="33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C178" s="35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E178" s="33"/>
       <c r="F178" s="33"/>
       <c r="G178" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H178" s="33"/>
       <c r="I178" s="33"/>
@@ -7467,21 +7458,21 @@
     </row>
     <row r="179" spans="1:12" ht="288" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="B179" s="67" t="s">
-        <v>586</v>
-      </c>
-      <c r="C179" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="B179" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="C179" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D179" s="33" t="s">
         <v>200</v>
-      </c>
-      <c r="D179" s="33" t="s">
-        <v>202</v>
       </c>
       <c r="E179" s="33"/>
       <c r="F179" s="33"/>
       <c r="G179" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H179" s="33"/>
       <c r="I179" s="33"/>
@@ -7490,17 +7481,17 @@
     </row>
     <row r="180" spans="1:12" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="B180" s="73"/>
-      <c r="C180" s="72"/>
+        <v>394</v>
+      </c>
+      <c r="B180" s="43"/>
+      <c r="C180" s="46"/>
       <c r="D180" s="33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E180" s="33"/>
       <c r="F180" s="33"/>
       <c r="G180" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H180" s="33"/>
       <c r="I180" s="33"/>
@@ -7509,17 +7500,17 @@
     </row>
     <row r="181" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="B181" s="68"/>
-      <c r="C181" s="66"/>
+        <v>395</v>
+      </c>
+      <c r="B181" s="44"/>
+      <c r="C181" s="47"/>
       <c r="D181" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E181" s="33"/>
       <c r="F181" s="33"/>
       <c r="G181" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H181" s="33"/>
       <c r="I181" s="33"/>
@@ -7528,21 +7519,21 @@
     </row>
     <row r="182" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="B182" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C182" s="65" t="s">
-        <v>204</v>
+        <v>396</v>
+      </c>
+      <c r="B182" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C182" s="45" t="s">
+        <v>202</v>
       </c>
       <c r="D182" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E182" s="33"/>
       <c r="F182" s="33"/>
       <c r="G182" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H182" s="33"/>
       <c r="I182" s="33"/>
@@ -7551,17 +7542,17 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="B183" s="68"/>
-      <c r="C183" s="66"/>
+        <v>397</v>
+      </c>
+      <c r="B183" s="44"/>
+      <c r="C183" s="47"/>
       <c r="D183" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E183" s="33"/>
       <c r="F183" s="33"/>
       <c r="G183" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H183" s="33"/>
       <c r="I183" s="33"/>
@@ -7570,21 +7561,21 @@
     </row>
     <row r="184" spans="1:12" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="B184" s="67" t="s">
-        <v>551</v>
-      </c>
-      <c r="C184" s="65" t="s">
-        <v>207</v>
+        <v>398</v>
+      </c>
+      <c r="B184" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="C184" s="45" t="s">
+        <v>205</v>
       </c>
       <c r="D184" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E184" s="33"/>
       <c r="F184" s="33"/>
       <c r="G184" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H184" s="33"/>
       <c r="I184" s="33"/>
@@ -7593,56 +7584,56 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="B185" s="68"/>
-      <c r="C185" s="66"/>
+        <v>399</v>
+      </c>
+      <c r="B185" s="44"/>
+      <c r="C185" s="47"/>
       <c r="D185" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E185" s="33"/>
       <c r="F185" s="33"/>
       <c r="G185" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H185" s="33"/>
       <c r="I185" s="33"/>
       <c r="J185" s="33"/>
       <c r="K185" s="33"/>
     </row>
-    <row r="186" spans="1:12" s="71" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="81" t="s">
-        <v>560</v>
-      </c>
-      <c r="B186" s="70"/>
-      <c r="C186" s="70"/>
-      <c r="D186" s="70"/>
-      <c r="E186" s="70"/>
-      <c r="F186" s="70"/>
-      <c r="G186" s="70"/>
-      <c r="H186" s="70"/>
-      <c r="I186" s="70"/>
-      <c r="J186" s="70"/>
-      <c r="K186" s="70"/>
-      <c r="L186" s="70"/>
+    <row r="186" spans="1:12" s="54" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="B186" s="53"/>
+      <c r="C186" s="53"/>
+      <c r="D186" s="53"/>
+      <c r="E186" s="53"/>
+      <c r="F186" s="53"/>
+      <c r="G186" s="53"/>
+      <c r="H186" s="53"/>
+      <c r="I186" s="53"/>
+      <c r="J186" s="53"/>
+      <c r="K186" s="53"/>
+      <c r="L186" s="53"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B187" s="67" t="s">
-        <v>608</v>
-      </c>
-      <c r="C187" s="65" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="B187" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="C187" s="45" t="s">
+        <v>208</v>
       </c>
       <c r="D187" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E187" s="33"/>
       <c r="F187" s="33"/>
       <c r="G187" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H187" s="33"/>
       <c r="I187" s="33"/>
@@ -7651,10 +7642,10 @@
     </row>
     <row r="188" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="B188" s="73"/>
-      <c r="C188" s="72"/>
+        <v>360</v>
+      </c>
+      <c r="B188" s="43"/>
+      <c r="C188" s="46"/>
       <c r="D188" s="33"/>
       <c r="E188" s="33"/>
       <c r="F188" s="33"/>
@@ -7666,17 +7657,17 @@
     </row>
     <row r="189" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="B189" s="73"/>
-      <c r="C189" s="72"/>
+        <v>361</v>
+      </c>
+      <c r="B189" s="43"/>
+      <c r="C189" s="46"/>
       <c r="D189" s="33" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E189" s="33"/>
       <c r="F189" s="33"/>
       <c r="G189" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H189" s="33"/>
       <c r="I189" s="33"/>
@@ -7685,17 +7676,17 @@
     </row>
     <row r="190" spans="1:12" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="B190" s="73"/>
-      <c r="C190" s="72"/>
+        <v>362</v>
+      </c>
+      <c r="B190" s="43"/>
+      <c r="C190" s="46"/>
       <c r="D190" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E190" s="33"/>
       <c r="F190" s="33"/>
       <c r="G190" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H190" s="33"/>
       <c r="I190" s="33"/>
@@ -7704,17 +7695,17 @@
     </row>
     <row r="191" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="B191" s="68"/>
-      <c r="C191" s="66"/>
+        <v>363</v>
+      </c>
+      <c r="B191" s="44"/>
+      <c r="C191" s="47"/>
       <c r="D191" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E191" s="33"/>
       <c r="F191" s="33"/>
       <c r="G191" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H191" s="33"/>
       <c r="I191" s="33"/>
@@ -7723,21 +7714,21 @@
     </row>
     <row r="192" spans="1:12" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="B192" s="67" t="s">
-        <v>582</v>
-      </c>
-      <c r="C192" s="65" t="s">
-        <v>211</v>
+        <v>364</v>
+      </c>
+      <c r="B192" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="C192" s="45" t="s">
+        <v>209</v>
       </c>
       <c r="D192" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E192" s="33"/>
       <c r="F192" s="33"/>
       <c r="G192" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H192" s="33"/>
       <c r="I192" s="33"/>
@@ -7746,17 +7737,17 @@
     </row>
     <row r="193" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="B193" s="73"/>
-      <c r="C193" s="72"/>
+        <v>365</v>
+      </c>
+      <c r="B193" s="43"/>
+      <c r="C193" s="46"/>
       <c r="D193" s="33" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E193" s="33"/>
       <c r="F193" s="33"/>
       <c r="G193" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H193" s="33"/>
       <c r="I193" s="33"/>
@@ -7765,10 +7756,10 @@
     </row>
     <row r="194" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="B194" s="68"/>
-      <c r="C194" s="66"/>
+        <v>366</v>
+      </c>
+      <c r="B194" s="44"/>
+      <c r="C194" s="47"/>
       <c r="D194" s="33"/>
       <c r="E194" s="33"/>
       <c r="F194" s="33"/>
@@ -7780,21 +7771,21 @@
     </row>
     <row r="195" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="B195" s="67" t="s">
-        <v>587</v>
-      </c>
-      <c r="C195" s="65" t="s">
-        <v>212</v>
+        <v>367</v>
+      </c>
+      <c r="B195" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="C195" s="45" t="s">
+        <v>210</v>
       </c>
       <c r="D195" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E195" s="33"/>
       <c r="F195" s="33"/>
       <c r="G195" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H195" s="33"/>
       <c r="I195" s="33"/>
@@ -7803,17 +7794,17 @@
     </row>
     <row r="196" spans="1:11" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="B196" s="68"/>
-      <c r="C196" s="66"/>
+        <v>368</v>
+      </c>
+      <c r="B196" s="44"/>
+      <c r="C196" s="47"/>
       <c r="D196" s="35" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E196" s="33"/>
       <c r="F196" s="33"/>
       <c r="G196" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H196" s="33"/>
       <c r="I196" s="33"/>
@@ -7822,21 +7813,21 @@
     </row>
     <row r="197" spans="1:11" ht="234" x14ac:dyDescent="0.2">
       <c r="A197" s="33" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B197" s="33" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C197" s="35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D197" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E197" s="33"/>
       <c r="F197" s="33"/>
       <c r="G197" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H197" s="33"/>
       <c r="I197" s="33"/>
@@ -7845,21 +7836,21 @@
     </row>
     <row r="198" spans="1:11" ht="281" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B198" s="33" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C198" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D198" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E198" s="33"/>
       <c r="F198" s="33"/>
       <c r="G198" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H198" s="33"/>
       <c r="I198" s="33"/>
@@ -7868,21 +7859,21 @@
     </row>
     <row r="199" spans="1:11" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="B199" s="67" t="s">
-        <v>586</v>
-      </c>
-      <c r="C199" s="65" t="s">
-        <v>220</v>
+        <v>371</v>
+      </c>
+      <c r="B199" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="C199" s="45" t="s">
+        <v>218</v>
       </c>
       <c r="D199" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E199" s="33"/>
       <c r="F199" s="33"/>
       <c r="G199" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H199" s="33"/>
       <c r="I199" s="33"/>
@@ -7891,17 +7882,17 @@
     </row>
     <row r="200" spans="1:11" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="B200" s="73"/>
-      <c r="C200" s="72"/>
+        <v>372</v>
+      </c>
+      <c r="B200" s="43"/>
+      <c r="C200" s="46"/>
       <c r="D200" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E200" s="33"/>
       <c r="F200" s="33"/>
       <c r="G200" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H200" s="33"/>
       <c r="I200" s="33"/>
@@ -7910,17 +7901,17 @@
     </row>
     <row r="201" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="B201" s="68"/>
-      <c r="C201" s="66"/>
+        <v>373</v>
+      </c>
+      <c r="B201" s="44"/>
+      <c r="C201" s="47"/>
       <c r="D201" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E201" s="33"/>
       <c r="F201" s="33"/>
       <c r="G201" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H201" s="33"/>
       <c r="I201" s="33"/>
@@ -7929,21 +7920,21 @@
     </row>
     <row r="202" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="B202" s="67" t="s">
-        <v>589</v>
-      </c>
-      <c r="C202" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="D202" s="67" t="s">
-        <v>611</v>
+        <v>374</v>
+      </c>
+      <c r="B202" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="C202" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="D202" s="42" t="s">
+        <v>609</v>
       </c>
       <c r="E202" s="33"/>
       <c r="F202" s="33"/>
-      <c r="G202" s="84" t="s">
-        <v>24</v>
+      <c r="G202" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="H202" s="33"/>
       <c r="I202" s="33"/>
@@ -7952,14 +7943,14 @@
     </row>
     <row r="203" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B203" s="68"/>
-      <c r="C203" s="66"/>
-      <c r="D203" s="68"/>
+        <v>375</v>
+      </c>
+      <c r="B203" s="44"/>
+      <c r="C203" s="47"/>
+      <c r="D203" s="44"/>
       <c r="E203" s="33"/>
       <c r="F203" s="33"/>
-      <c r="G203" s="85"/>
+      <c r="G203" s="41"/>
       <c r="H203" s="33"/>
       <c r="I203" s="33"/>
       <c r="J203" s="33"/>
@@ -7967,21 +7958,21 @@
     </row>
     <row r="204" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="B204" s="67" t="s">
-        <v>590</v>
-      </c>
-      <c r="C204" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="D204" s="67" t="s">
-        <v>227</v>
+        <v>376</v>
+      </c>
+      <c r="B204" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="C204" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D204" s="42" t="s">
+        <v>225</v>
       </c>
       <c r="E204" s="33"/>
       <c r="F204" s="33"/>
       <c r="G204" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H204" s="33"/>
       <c r="I204" s="33"/>
@@ -7990,15 +7981,15 @@
     </row>
     <row r="205" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="B205" s="68"/>
-      <c r="C205" s="66"/>
-      <c r="D205" s="68"/>
+        <v>377</v>
+      </c>
+      <c r="B205" s="44"/>
+      <c r="C205" s="47"/>
+      <c r="D205" s="44"/>
       <c r="E205" s="33"/>
       <c r="F205" s="33"/>
       <c r="G205" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H205" s="33"/>
       <c r="I205" s="33"/>
@@ -8007,21 +7998,21 @@
     </row>
     <row r="206" spans="1:11" ht="243" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="B206" s="67" t="s">
-        <v>540</v>
-      </c>
-      <c r="C206" s="65" t="s">
-        <v>224</v>
+        <v>378</v>
+      </c>
+      <c r="B206" s="42" t="s">
+        <v>538</v>
+      </c>
+      <c r="C206" s="45" t="s">
+        <v>222</v>
       </c>
       <c r="D206" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E206" s="33"/>
       <c r="F206" s="33"/>
       <c r="G206" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H206" s="33"/>
       <c r="I206" s="33"/>
@@ -8030,17 +8021,17 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="B207" s="68"/>
-      <c r="C207" s="66"/>
+        <v>379</v>
+      </c>
+      <c r="B207" s="44"/>
+      <c r="C207" s="47"/>
       <c r="D207" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E207" s="33"/>
       <c r="F207" s="33"/>
       <c r="G207" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H207" s="33"/>
       <c r="I207" s="33"/>
@@ -8049,21 +8040,21 @@
     </row>
     <row r="208" spans="1:11" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="B208" s="67" t="s">
-        <v>551</v>
-      </c>
-      <c r="C208" s="65" t="s">
-        <v>225</v>
+        <v>380</v>
+      </c>
+      <c r="B208" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="C208" s="45" t="s">
+        <v>223</v>
       </c>
       <c r="D208" s="33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E208" s="33"/>
       <c r="F208" s="33"/>
       <c r="G208" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H208" s="33"/>
       <c r="I208" s="33"/>
@@ -8072,55 +8063,55 @@
     </row>
     <row r="209" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="B209" s="68"/>
-      <c r="C209" s="66"/>
+        <v>381</v>
+      </c>
+      <c r="B209" s="44"/>
+      <c r="C209" s="47"/>
       <c r="D209" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E209" s="33"/>
       <c r="F209" s="33"/>
       <c r="G209" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H209" s="33"/>
       <c r="I209" s="33"/>
       <c r="J209" s="33"/>
       <c r="K209" s="33"/>
     </row>
-    <row r="210" spans="1:11" s="83" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="80" t="s">
-        <v>561</v>
-      </c>
-      <c r="B210" s="82"/>
-      <c r="C210" s="82"/>
-      <c r="D210" s="82"/>
-      <c r="E210" s="82"/>
-      <c r="F210" s="82"/>
-      <c r="G210" s="82"/>
-      <c r="H210" s="82"/>
-      <c r="I210" s="82"/>
-      <c r="J210" s="82"/>
-      <c r="K210" s="82"/>
+    <row r="210" spans="1:11" s="50" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="48" t="s">
+        <v>559</v>
+      </c>
+      <c r="B210" s="49"/>
+      <c r="C210" s="49"/>
+      <c r="D210" s="49"/>
+      <c r="E210" s="49"/>
+      <c r="F210" s="49"/>
+      <c r="G210" s="49"/>
+      <c r="H210" s="49"/>
+      <c r="I210" s="49"/>
+      <c r="J210" s="49"/>
+      <c r="K210" s="49"/>
     </row>
     <row r="211" spans="1:11" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B211" s="67" t="s">
-        <v>229</v>
-      </c>
-      <c r="C211" s="65" t="s">
-        <v>214</v>
+        <v>226</v>
+      </c>
+      <c r="B211" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C211" s="45" t="s">
+        <v>212</v>
       </c>
       <c r="D211" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E211" s="33"/>
       <c r="F211" s="33"/>
       <c r="G211" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H211" s="33"/>
       <c r="I211" s="33"/>
@@ -8129,17 +8120,17 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="B212" s="73"/>
-      <c r="C212" s="72"/>
+        <v>352</v>
+      </c>
+      <c r="B212" s="43"/>
+      <c r="C212" s="46"/>
       <c r="D212" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E212" s="33"/>
       <c r="F212" s="33"/>
       <c r="G212" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H212" s="33"/>
       <c r="I212" s="33"/>
@@ -8148,17 +8139,17 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="B213" s="73"/>
-      <c r="C213" s="72"/>
+        <v>353</v>
+      </c>
+      <c r="B213" s="43"/>
+      <c r="C213" s="46"/>
       <c r="D213" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E213" s="33"/>
       <c r="F213" s="33"/>
       <c r="G213" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H213" s="33"/>
       <c r="I213" s="33"/>
@@ -8167,17 +8158,17 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="B214" s="73"/>
-      <c r="C214" s="72"/>
+        <v>354</v>
+      </c>
+      <c r="B214" s="43"/>
+      <c r="C214" s="46"/>
       <c r="D214" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E214" s="33"/>
       <c r="F214" s="33"/>
       <c r="G214" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H214" s="33"/>
       <c r="I214" s="33"/>
@@ -8186,17 +8177,17 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="B215" s="73"/>
-      <c r="C215" s="72"/>
+        <v>355</v>
+      </c>
+      <c r="B215" s="43"/>
+      <c r="C215" s="46"/>
       <c r="D215" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E215" s="33"/>
       <c r="F215" s="33"/>
       <c r="G215" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H215" s="33"/>
       <c r="I215" s="33"/>
@@ -8205,17 +8196,17 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="B216" s="68"/>
-      <c r="C216" s="66"/>
+        <v>356</v>
+      </c>
+      <c r="B216" s="44"/>
+      <c r="C216" s="47"/>
       <c r="D216" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E216" s="33"/>
       <c r="F216" s="33"/>
       <c r="G216" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H216" s="33"/>
       <c r="I216" s="33"/>
@@ -8224,21 +8215,21 @@
     </row>
     <row r="217" spans="1:11" ht="270" x14ac:dyDescent="0.2">
       <c r="A217" s="33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B217" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C217" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D217" s="33" t="s">
         <v>232</v>
-      </c>
-      <c r="C217" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="D217" s="33" t="s">
-        <v>234</v>
       </c>
       <c r="E217" s="33"/>
       <c r="F217" s="33"/>
       <c r="G217" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H217" s="33"/>
       <c r="I217" s="33"/>
@@ -8247,21 +8238,21 @@
     </row>
     <row r="218" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="B218" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="C218" s="65" t="s">
-        <v>235</v>
+        <v>358</v>
+      </c>
+      <c r="B218" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C218" s="45" t="s">
+        <v>233</v>
       </c>
       <c r="D218" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E218" s="33"/>
       <c r="F218" s="33"/>
       <c r="G218" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H218" s="33"/>
       <c r="I218" s="33"/>
@@ -8270,55 +8261,55 @@
     </row>
     <row r="219" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="B219" s="68"/>
-      <c r="C219" s="66"/>
+        <v>359</v>
+      </c>
+      <c r="B219" s="44"/>
+      <c r="C219" s="47"/>
       <c r="D219" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E219" s="33"/>
       <c r="F219" s="33"/>
       <c r="G219" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H219" s="33"/>
       <c r="I219" s="33"/>
       <c r="J219" s="33"/>
       <c r="K219" s="33"/>
     </row>
-    <row r="220" spans="1:11" s="83" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="B220" s="82"/>
-      <c r="C220" s="82"/>
-      <c r="D220" s="82"/>
-      <c r="E220" s="82"/>
-      <c r="F220" s="82"/>
-      <c r="G220" s="82"/>
-      <c r="H220" s="82"/>
-      <c r="I220" s="82"/>
-      <c r="J220" s="82"/>
-      <c r="K220" s="82"/>
+    <row r="220" spans="1:11" s="50" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B220" s="49"/>
+      <c r="C220" s="49"/>
+      <c r="D220" s="49"/>
+      <c r="E220" s="49"/>
+      <c r="F220" s="49"/>
+      <c r="G220" s="49"/>
+      <c r="H220" s="49"/>
+      <c r="I220" s="49"/>
+      <c r="J220" s="49"/>
+      <c r="K220" s="49"/>
     </row>
     <row r="221" spans="1:11" ht="248" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B221" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C221" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="D221" s="33" t="s">
         <v>239</v>
-      </c>
-      <c r="B221" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="C221" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="D221" s="33" t="s">
-        <v>241</v>
       </c>
       <c r="E221" s="33"/>
       <c r="F221" s="33"/>
       <c r="G221" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H221" s="33"/>
       <c r="I221" s="33"/>
@@ -8327,17 +8318,17 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="B222" s="68"/>
-      <c r="C222" s="66"/>
+        <v>348</v>
+      </c>
+      <c r="B222" s="44"/>
+      <c r="C222" s="47"/>
       <c r="D222" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E222" s="33"/>
       <c r="F222" s="33"/>
       <c r="G222" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H222" s="33"/>
       <c r="I222" s="33"/>
@@ -8346,21 +8337,21 @@
     </row>
     <row r="223" spans="1:11" ht="306" x14ac:dyDescent="0.2">
       <c r="A223" s="33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B223" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C223" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D223" s="33" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E223" s="33"/>
       <c r="F223" s="33"/>
       <c r="G223" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H223" s="33"/>
       <c r="I223" s="33"/>
@@ -8369,21 +8360,21 @@
     </row>
     <row r="224" spans="1:11" ht="306" x14ac:dyDescent="0.2">
       <c r="A224" s="33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B224" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C224" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D224" s="33" t="s">
         <v>245</v>
-      </c>
-      <c r="C224" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="D224" s="33" t="s">
-        <v>247</v>
       </c>
       <c r="E224" s="33"/>
       <c r="F224" s="33"/>
       <c r="G224" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H224" s="33"/>
       <c r="I224" s="33"/>
@@ -8392,59 +8383,59 @@
     </row>
     <row r="225" spans="1:11" ht="306" x14ac:dyDescent="0.2">
       <c r="A225" s="33" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C225" s="35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D225" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E225" s="33"/>
       <c r="F225" s="33"/>
       <c r="G225" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H225" s="33"/>
       <c r="I225" s="33"/>
       <c r="J225" s="33"/>
       <c r="K225" s="33"/>
     </row>
-    <row r="226" spans="1:11" s="83" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="80" t="s">
-        <v>562</v>
-      </c>
-      <c r="B226" s="82"/>
-      <c r="C226" s="82"/>
-      <c r="D226" s="82"/>
-      <c r="E226" s="82"/>
-      <c r="F226" s="82"/>
-      <c r="G226" s="82"/>
-      <c r="H226" s="82"/>
-      <c r="I226" s="82"/>
-      <c r="J226" s="82"/>
-      <c r="K226" s="82"/>
+    <row r="226" spans="1:11" s="50" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="B226" s="49"/>
+      <c r="C226" s="49"/>
+      <c r="D226" s="49"/>
+      <c r="E226" s="49"/>
+      <c r="F226" s="49"/>
+      <c r="G226" s="49"/>
+      <c r="H226" s="49"/>
+      <c r="I226" s="49"/>
+      <c r="J226" s="49"/>
+      <c r="K226" s="49"/>
     </row>
     <row r="227" spans="1:11" ht="142" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B227" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="B227" s="67" t="s">
-        <v>252</v>
-      </c>
-      <c r="C227" s="65" t="s">
-        <v>251</v>
+      <c r="C227" s="45" t="s">
+        <v>249</v>
       </c>
       <c r="D227" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E227" s="33"/>
       <c r="F227" s="33"/>
       <c r="G227" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H227" s="33"/>
       <c r="I227" s="33"/>
@@ -8453,17 +8444,17 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="B228" s="73"/>
-      <c r="C228" s="72"/>
+        <v>334</v>
+      </c>
+      <c r="B228" s="43"/>
+      <c r="C228" s="46"/>
       <c r="D228" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E228" s="33"/>
       <c r="F228" s="33"/>
       <c r="G228" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H228" s="33"/>
       <c r="I228" s="33"/>
@@ -8472,15 +8463,15 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="B229" s="73"/>
-      <c r="C229" s="72"/>
+        <v>335</v>
+      </c>
+      <c r="B229" s="43"/>
+      <c r="C229" s="46"/>
       <c r="D229" s="33"/>
       <c r="E229" s="33"/>
       <c r="F229" s="33"/>
       <c r="G229" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H229" s="33"/>
       <c r="I229" s="33"/>
@@ -8489,17 +8480,17 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="B230" s="73"/>
-      <c r="C230" s="72"/>
+        <v>336</v>
+      </c>
+      <c r="B230" s="43"/>
+      <c r="C230" s="46"/>
       <c r="D230" s="33" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E230" s="33"/>
       <c r="F230" s="33"/>
       <c r="G230" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H230" s="33"/>
       <c r="I230" s="33"/>
@@ -8508,17 +8499,17 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="B231" s="73"/>
-      <c r="C231" s="72"/>
+        <v>337</v>
+      </c>
+      <c r="B231" s="43"/>
+      <c r="C231" s="46"/>
       <c r="D231" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E231" s="33"/>
       <c r="F231" s="33"/>
       <c r="G231" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H231" s="33"/>
       <c r="I231" s="33"/>
@@ -8527,17 +8518,17 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="B232" s="73"/>
-      <c r="C232" s="72"/>
+        <v>338</v>
+      </c>
+      <c r="B232" s="43"/>
+      <c r="C232" s="46"/>
       <c r="D232" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E232" s="33"/>
       <c r="F232" s="33"/>
       <c r="G232" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H232" s="33"/>
       <c r="I232" s="33"/>
@@ -8546,17 +8537,17 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="B233" s="73"/>
-      <c r="C233" s="72"/>
+        <v>339</v>
+      </c>
+      <c r="B233" s="43"/>
+      <c r="C233" s="46"/>
       <c r="D233" s="33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E233" s="33"/>
       <c r="F233" s="33"/>
       <c r="G233" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H233" s="33"/>
       <c r="I233" s="33"/>
@@ -8565,17 +8556,17 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="B234" s="68"/>
-      <c r="C234" s="66"/>
+        <v>340</v>
+      </c>
+      <c r="B234" s="44"/>
+      <c r="C234" s="47"/>
       <c r="D234" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E234" s="33"/>
       <c r="F234" s="33"/>
       <c r="G234" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H234" s="33"/>
       <c r="I234" s="33"/>
@@ -8584,21 +8575,21 @@
     </row>
     <row r="235" spans="1:11" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="B235" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="B235" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C235" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D235" s="33" t="s">
         <v>257</v>
-      </c>
-      <c r="C235" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="D235" s="33" t="s">
-        <v>259</v>
       </c>
       <c r="E235" s="33"/>
       <c r="F235" s="33"/>
       <c r="G235" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H235" s="33"/>
       <c r="I235" s="33"/>
@@ -8607,17 +8598,17 @@
     </row>
     <row r="236" spans="1:11" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="B236" s="73"/>
-      <c r="C236" s="72"/>
+        <v>342</v>
+      </c>
+      <c r="B236" s="43"/>
+      <c r="C236" s="46"/>
       <c r="D236" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E236" s="33"/>
       <c r="F236" s="33"/>
       <c r="G236" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H236" s="33"/>
       <c r="I236" s="33"/>
@@ -8626,17 +8617,17 @@
     </row>
     <row r="237" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="B237" s="68"/>
-      <c r="C237" s="66"/>
+        <v>343</v>
+      </c>
+      <c r="B237" s="44"/>
+      <c r="C237" s="47"/>
       <c r="D237" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E237" s="33"/>
       <c r="F237" s="33"/>
       <c r="G237" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H237" s="33"/>
       <c r="I237" s="33"/>
@@ -8645,21 +8636,21 @@
     </row>
     <row r="238" spans="1:11" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="B238" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="C238" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B238" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C238" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D238" s="33" t="s">
         <v>261</v>
-      </c>
-      <c r="D238" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="E238" s="33"/>
       <c r="F238" s="33"/>
       <c r="G238" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H238" s="33"/>
       <c r="I238" s="33"/>
@@ -8668,17 +8659,17 @@
     </row>
     <row r="239" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="B239" s="68"/>
-      <c r="C239" s="66"/>
+        <v>345</v>
+      </c>
+      <c r="B239" s="44"/>
+      <c r="C239" s="47"/>
       <c r="D239" s="33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E239" s="33"/>
       <c r="F239" s="33"/>
       <c r="G239" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H239" s="33"/>
       <c r="I239" s="33"/>
@@ -8687,21 +8678,21 @@
     </row>
     <row r="240" spans="1:11" ht="270" x14ac:dyDescent="0.2">
       <c r="A240" s="33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B240" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C240" s="35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D240" s="33" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E240" s="33"/>
       <c r="F240" s="33"/>
       <c r="G240" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H240" s="33"/>
       <c r="I240" s="33"/>
@@ -8710,60 +8701,60 @@
     </row>
     <row r="241" spans="1:12" ht="270" x14ac:dyDescent="0.2">
       <c r="A241" s="33" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B241" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C241" s="35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D241" s="33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E241" s="33"/>
       <c r="F241" s="33"/>
       <c r="G241" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H241" s="33"/>
       <c r="I241" s="33"/>
       <c r="J241" s="33"/>
       <c r="K241" s="33"/>
     </row>
-    <row r="242" spans="1:12" s="83" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="81" t="s">
-        <v>563</v>
-      </c>
-      <c r="B242" s="88"/>
-      <c r="C242" s="88"/>
-      <c r="D242" s="88"/>
-      <c r="E242" s="88"/>
-      <c r="F242" s="88"/>
-      <c r="G242" s="88"/>
-      <c r="H242" s="88"/>
-      <c r="I242" s="88"/>
-      <c r="J242" s="88"/>
-      <c r="K242" s="88"/>
-      <c r="L242" s="88"/>
+    <row r="242" spans="1:12" s="50" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="B242" s="52"/>
+      <c r="C242" s="52"/>
+      <c r="D242" s="52"/>
+      <c r="E242" s="52"/>
+      <c r="F242" s="52"/>
+      <c r="G242" s="52"/>
+      <c r="H242" s="52"/>
+      <c r="I242" s="52"/>
+      <c r="J242" s="52"/>
+      <c r="K242" s="52"/>
+      <c r="L242" s="52"/>
     </row>
     <row r="243" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="B243" s="67" t="s">
-        <v>268</v>
-      </c>
-      <c r="C243" s="65" t="s">
-        <v>615</v>
+        <v>265</v>
+      </c>
+      <c r="B243" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="C243" s="45" t="s">
+        <v>613</v>
       </c>
       <c r="D243" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E243" s="33"/>
       <c r="F243" s="33"/>
       <c r="G243" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H243" s="33"/>
       <c r="I243" s="33"/>
@@ -8772,17 +8763,17 @@
     </row>
     <row r="244" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="B244" s="73"/>
-      <c r="C244" s="72"/>
+        <v>324</v>
+      </c>
+      <c r="B244" s="43"/>
+      <c r="C244" s="46"/>
       <c r="D244" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E244" s="33"/>
       <c r="F244" s="33"/>
       <c r="G244" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H244" s="33"/>
       <c r="I244" s="33"/>
@@ -8791,17 +8782,17 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="B245" s="73"/>
-      <c r="C245" s="72"/>
+        <v>325</v>
+      </c>
+      <c r="B245" s="43"/>
+      <c r="C245" s="46"/>
       <c r="D245" s="33" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E245" s="33"/>
       <c r="F245" s="33"/>
       <c r="G245" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H245" s="33"/>
       <c r="I245" s="33"/>
@@ -8810,15 +8801,15 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="B246" s="73"/>
-      <c r="C246" s="72"/>
+        <v>326</v>
+      </c>
+      <c r="B246" s="43"/>
+      <c r="C246" s="46"/>
       <c r="D246" s="33"/>
       <c r="E246" s="33"/>
       <c r="F246" s="33"/>
       <c r="G246" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H246" s="33"/>
       <c r="I246" s="33"/>
@@ -8827,17 +8818,17 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="B247" s="73"/>
-      <c r="C247" s="72"/>
+        <v>327</v>
+      </c>
+      <c r="B247" s="43"/>
+      <c r="C247" s="46"/>
       <c r="D247" s="33" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E247" s="33"/>
       <c r="F247" s="33"/>
       <c r="G247" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H247" s="33"/>
       <c r="I247" s="33"/>
@@ -8846,17 +8837,17 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="B248" s="73"/>
-      <c r="C248" s="72"/>
+        <v>328</v>
+      </c>
+      <c r="B248" s="43"/>
+      <c r="C248" s="46"/>
       <c r="D248" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E248" s="33"/>
       <c r="F248" s="33"/>
       <c r="G248" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H248" s="33"/>
       <c r="I248" s="33"/>
@@ -8865,15 +8856,15 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="B249" s="73"/>
-      <c r="C249" s="72"/>
+        <v>329</v>
+      </c>
+      <c r="B249" s="43"/>
+      <c r="C249" s="46"/>
       <c r="D249" s="33"/>
       <c r="E249" s="33"/>
       <c r="F249" s="33"/>
       <c r="G249" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H249" s="33"/>
       <c r="I249" s="33"/>
@@ -8882,15 +8873,15 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="B250" s="68"/>
-      <c r="C250" s="66"/>
+        <v>330</v>
+      </c>
+      <c r="B250" s="44"/>
+      <c r="C250" s="47"/>
       <c r="D250" s="33"/>
       <c r="E250" s="33"/>
       <c r="F250" s="33"/>
       <c r="G250" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H250" s="33"/>
       <c r="I250" s="33"/>
@@ -8899,21 +8890,21 @@
     </row>
     <row r="251" spans="1:12" ht="162" x14ac:dyDescent="0.2">
       <c r="A251" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B251" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C251" s="35" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E251" s="33"/>
       <c r="F251" s="33"/>
       <c r="G251" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H251" s="33"/>
       <c r="I251" s="33"/>
@@ -8922,21 +8913,21 @@
     </row>
     <row r="252" spans="1:12" ht="180" x14ac:dyDescent="0.2">
       <c r="A252" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B252" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C252" s="35" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D252" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E252" s="33"/>
       <c r="F252" s="33"/>
       <c r="G252" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H252" s="33"/>
       <c r="I252" s="33"/>
@@ -8945,59 +8936,59 @@
     </row>
     <row r="253" spans="1:12" ht="162" x14ac:dyDescent="0.2">
       <c r="A253" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B253" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C253" s="35" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D253" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E253" s="33"/>
       <c r="F253" s="33"/>
       <c r="G253" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H253" s="33"/>
       <c r="I253" s="33"/>
       <c r="J253" s="33"/>
       <c r="K253" s="33"/>
     </row>
-    <row r="254" spans="1:12" s="83" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="80" t="s">
-        <v>564</v>
-      </c>
-      <c r="B254" s="82"/>
-      <c r="C254" s="82"/>
-      <c r="D254" s="82"/>
-      <c r="E254" s="82"/>
-      <c r="F254" s="82"/>
-      <c r="G254" s="82"/>
-      <c r="H254" s="82"/>
-      <c r="I254" s="82"/>
-      <c r="J254" s="82"/>
-      <c r="K254" s="82"/>
+    <row r="254" spans="1:12" s="50" customFormat="1" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="48" t="s">
+        <v>562</v>
+      </c>
+      <c r="B254" s="49"/>
+      <c r="C254" s="49"/>
+      <c r="D254" s="49"/>
+      <c r="E254" s="49"/>
+      <c r="F254" s="49"/>
+      <c r="G254" s="49"/>
+      <c r="H254" s="49"/>
+      <c r="I254" s="49"/>
+      <c r="J254" s="49"/>
+      <c r="K254" s="49"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="B255" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="C255" s="65" t="s">
-        <v>281</v>
+        <v>271</v>
+      </c>
+      <c r="B255" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="C255" s="45" t="s">
+        <v>279</v>
       </c>
       <c r="D255" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E255" s="33"/>
       <c r="F255" s="33"/>
       <c r="G255" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H255" s="33"/>
       <c r="I255" s="33"/>
@@ -9006,17 +8997,17 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B256" s="73"/>
-      <c r="C256" s="72"/>
+        <v>314</v>
+      </c>
+      <c r="B256" s="43"/>
+      <c r="C256" s="46"/>
       <c r="D256" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E256" s="33"/>
       <c r="F256" s="33"/>
       <c r="G256" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H256" s="33"/>
       <c r="I256" s="33"/>
@@ -9025,10 +9016,10 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="B257" s="73"/>
-      <c r="C257" s="72"/>
+        <v>315</v>
+      </c>
+      <c r="B257" s="43"/>
+      <c r="C257" s="46"/>
       <c r="D257" s="33"/>
       <c r="E257" s="33"/>
       <c r="F257" s="33"/>
@@ -9040,10 +9031,10 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="B258" s="73"/>
-      <c r="C258" s="72"/>
+        <v>316</v>
+      </c>
+      <c r="B258" s="43"/>
+      <c r="C258" s="46"/>
       <c r="D258" s="33"/>
       <c r="E258" s="33"/>
       <c r="F258" s="33"/>
@@ -9055,10 +9046,10 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="B259" s="73"/>
-      <c r="C259" s="72"/>
+        <v>317</v>
+      </c>
+      <c r="B259" s="43"/>
+      <c r="C259" s="46"/>
       <c r="D259" s="33"/>
       <c r="E259" s="33"/>
       <c r="F259" s="33"/>
@@ -9070,17 +9061,17 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="B260" s="73"/>
-      <c r="C260" s="72"/>
+        <v>318</v>
+      </c>
+      <c r="B260" s="43"/>
+      <c r="C260" s="46"/>
       <c r="D260" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E260" s="33"/>
       <c r="F260" s="33"/>
       <c r="G260" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H260" s="33"/>
       <c r="I260" s="33"/>
@@ -9089,17 +9080,17 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="B261" s="73"/>
-      <c r="C261" s="72"/>
+        <v>319</v>
+      </c>
+      <c r="B261" s="43"/>
+      <c r="C261" s="46"/>
       <c r="D261" s="33" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E261" s="33"/>
       <c r="F261" s="33"/>
       <c r="G261" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H261" s="33"/>
       <c r="I261" s="33"/>
@@ -9108,17 +9099,17 @@
     </row>
     <row r="262" spans="1:11" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="B262" s="68"/>
-      <c r="C262" s="66"/>
+        <v>320</v>
+      </c>
+      <c r="B262" s="44"/>
+      <c r="C262" s="47"/>
       <c r="D262" s="33" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E262" s="33"/>
       <c r="F262" s="33"/>
       <c r="G262" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H262" s="33"/>
       <c r="I262" s="33"/>
@@ -9127,21 +9118,21 @@
     </row>
     <row r="263" spans="1:11" ht="288" x14ac:dyDescent="0.2">
       <c r="A263" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B263" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C263" s="35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D263" s="33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E263" s="33"/>
       <c r="F263" s="33"/>
       <c r="G263" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H263" s="33"/>
       <c r="I263" s="33"/>
@@ -9150,21 +9141,21 @@
     </row>
     <row r="264" spans="1:11" ht="324" x14ac:dyDescent="0.2">
       <c r="A264" s="33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C264" s="35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D264" s="33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E264" s="33"/>
       <c r="F264" s="33"/>
       <c r="G264" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H264" s="33"/>
       <c r="I264" s="33"/>
@@ -9173,59 +9164,59 @@
     </row>
     <row r="265" spans="1:11" ht="324" x14ac:dyDescent="0.2">
       <c r="A265" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B265" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C265" s="35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D265" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E265" s="33"/>
       <c r="F265" s="33"/>
       <c r="G265" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H265" s="33"/>
       <c r="I265" s="33"/>
       <c r="J265" s="33"/>
       <c r="K265" s="33"/>
     </row>
-    <row r="266" spans="1:11" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="80" t="s">
-        <v>565</v>
-      </c>
-      <c r="B266" s="82"/>
-      <c r="C266" s="82"/>
-      <c r="D266" s="82"/>
-      <c r="E266" s="82"/>
-      <c r="F266" s="82"/>
-      <c r="G266" s="82"/>
-      <c r="H266" s="82"/>
-      <c r="I266" s="82"/>
-      <c r="J266" s="82"/>
-      <c r="K266" s="82"/>
+    <row r="266" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="48" t="s">
+        <v>563</v>
+      </c>
+      <c r="B266" s="49"/>
+      <c r="C266" s="49"/>
+      <c r="D266" s="49"/>
+      <c r="E266" s="49"/>
+      <c r="F266" s="49"/>
+      <c r="G266" s="49"/>
+      <c r="H266" s="49"/>
+      <c r="I266" s="49"/>
+      <c r="J266" s="49"/>
+      <c r="K266" s="49"/>
     </row>
     <row r="267" spans="1:11" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="B267" s="67" t="s">
-        <v>280</v>
-      </c>
-      <c r="C267" s="65" t="s">
-        <v>283</v>
+        <v>277</v>
+      </c>
+      <c r="B267" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="C267" s="45" t="s">
+        <v>281</v>
       </c>
       <c r="D267" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E267" s="33"/>
       <c r="F267" s="33"/>
       <c r="G267" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H267" s="33"/>
       <c r="I267" s="33"/>
@@ -9234,17 +9225,17 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="B268" s="73"/>
-      <c r="C268" s="72"/>
+        <v>307</v>
+      </c>
+      <c r="B268" s="43"/>
+      <c r="C268" s="46"/>
       <c r="D268" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E268" s="33"/>
       <c r="F268" s="33"/>
       <c r="G268" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H268" s="33"/>
       <c r="I268" s="33"/>
@@ -9253,17 +9244,17 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="B269" s="73"/>
-      <c r="C269" s="72"/>
+        <v>308</v>
+      </c>
+      <c r="B269" s="43"/>
+      <c r="C269" s="46"/>
       <c r="D269" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E269" s="33"/>
       <c r="F269" s="33"/>
       <c r="G269" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H269" s="33"/>
       <c r="I269" s="33"/>
@@ -9272,17 +9263,17 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="B270" s="68"/>
-      <c r="C270" s="66"/>
+        <v>309</v>
+      </c>
+      <c r="B270" s="44"/>
+      <c r="C270" s="47"/>
       <c r="D270" s="33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E270" s="33"/>
       <c r="F270" s="33"/>
       <c r="G270" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H270" s="33"/>
       <c r="I270" s="33"/>
@@ -9291,21 +9282,21 @@
     </row>
     <row r="271" spans="1:11" ht="234" x14ac:dyDescent="0.2">
       <c r="A271" s="33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B271" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C271" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D271" s="33" t="s">
         <v>285</v>
-      </c>
-      <c r="C271" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D271" s="33" t="s">
-        <v>287</v>
       </c>
       <c r="E271" s="33"/>
       <c r="F271" s="33"/>
       <c r="G271" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H271" s="33"/>
       <c r="I271" s="33"/>
@@ -9314,21 +9305,21 @@
     </row>
     <row r="272" spans="1:11" ht="234" x14ac:dyDescent="0.2">
       <c r="A272" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B272" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C272" s="35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D272" s="33" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E272" s="33"/>
       <c r="F272" s="33"/>
       <c r="G272" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H272" s="33"/>
       <c r="I272" s="33"/>
@@ -9337,21 +9328,21 @@
     </row>
     <row r="273" spans="1:11" ht="234" x14ac:dyDescent="0.2">
       <c r="A273" s="33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B273" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C273" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="D273" s="33" t="s">
         <v>290</v>
-      </c>
-      <c r="C273" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="D273" s="33" t="s">
-        <v>292</v>
       </c>
       <c r="E273" s="33"/>
       <c r="F273" s="33"/>
       <c r="G273" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H273" s="33"/>
       <c r="I273" s="33"/>
@@ -9360,59 +9351,59 @@
     </row>
     <row r="274" spans="1:11" ht="234" x14ac:dyDescent="0.2">
       <c r="A274" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B274" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C274" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D274" s="33" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E274" s="33"/>
       <c r="F274" s="33"/>
       <c r="G274" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H274" s="33" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I274" s="33"/>
       <c r="J274" s="33"/>
       <c r="K274" s="33"/>
     </row>
-    <row r="275" spans="1:11" s="83" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="80" t="s">
-        <v>566</v>
-      </c>
-      <c r="B275" s="82"/>
-      <c r="C275" s="82"/>
-      <c r="D275" s="82"/>
-      <c r="E275" s="82"/>
-      <c r="F275" s="82"/>
-      <c r="G275" s="82"/>
-      <c r="H275" s="82"/>
-      <c r="I275" s="82"/>
-      <c r="J275" s="82"/>
-      <c r="K275" s="82"/>
+    <row r="275" spans="1:11" s="50" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="B275" s="49"/>
+      <c r="C275" s="49"/>
+      <c r="D275" s="49"/>
+      <c r="E275" s="49"/>
+      <c r="F275" s="49"/>
+      <c r="G275" s="49"/>
+      <c r="H275" s="49"/>
+      <c r="I275" s="49"/>
+      <c r="J275" s="49"/>
+      <c r="K275" s="49"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B276" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="B276" s="33" t="s">
-        <v>297</v>
       </c>
       <c r="C276" s="33"/>
       <c r="D276" s="33" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E276" s="33"/>
       <c r="F276" s="33"/>
       <c r="G276" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H276" s="33"/>
       <c r="I276" s="33"/>
@@ -9421,19 +9412,19 @@
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B277" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C277" s="33"/>
       <c r="D277" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E277" s="33"/>
       <c r="F277" s="33"/>
       <c r="G277" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H277" s="33"/>
       <c r="I277" s="33"/>
@@ -9442,19 +9433,19 @@
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B278" s="33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C278" s="33"/>
       <c r="D278" s="33" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E278" s="33"/>
       <c r="F278" s="33"/>
       <c r="G278" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H278" s="33"/>
       <c r="I278" s="33"/>
@@ -9463,19 +9454,19 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B279" s="33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C279" s="33"/>
       <c r="D279" s="33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E279" s="33"/>
       <c r="F279" s="33"/>
       <c r="G279" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H279" s="33"/>
       <c r="I279" s="33"/>
@@ -9484,19 +9475,19 @@
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="33" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B280" s="33" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C280" s="33"/>
       <c r="D280" s="33" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E280" s="33"/>
       <c r="F280" s="33"/>
       <c r="G280" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H280" s="33"/>
       <c r="I280" s="33"/>
@@ -9505,10 +9496,10 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="33" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B281" s="33" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C281" s="33"/>
       <c r="D281" s="33"/>
@@ -9522,19 +9513,19 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="B282" s="86" t="s">
-        <v>623</v>
-      </c>
-      <c r="C282" s="84"/>
+        <v>591</v>
+      </c>
+      <c r="B282" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="C282" s="40"/>
       <c r="D282" s="33" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E282" s="33"/>
       <c r="F282" s="33"/>
       <c r="G282" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H282" s="33"/>
       <c r="I282" s="33"/>
@@ -9543,17 +9534,17 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="33" t="s">
-        <v>626</v>
-      </c>
-      <c r="B283" s="87"/>
-      <c r="C283" s="85"/>
+        <v>624</v>
+      </c>
+      <c r="B283" s="39"/>
+      <c r="C283" s="41"/>
       <c r="D283" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E283" s="33"/>
       <c r="F283" s="33"/>
       <c r="G283" s="33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H283" s="33"/>
       <c r="I283" s="33"/>
@@ -10108,30 +10099,127 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="B282:B283"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="B255:B262"/>
-    <mergeCell ref="C255:C262"/>
-    <mergeCell ref="A266:XFD266"/>
-    <mergeCell ref="C267:C270"/>
-    <mergeCell ref="B267:B270"/>
-    <mergeCell ref="A275:XFD275"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="A242:XFD242"/>
-    <mergeCell ref="C243:C250"/>
-    <mergeCell ref="B243:B250"/>
-    <mergeCell ref="A254:XFD254"/>
-    <mergeCell ref="C227:C234"/>
-    <mergeCell ref="B227:B234"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="B235:B237"/>
-    <mergeCell ref="A220:XFD220"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="A226:XFD226"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="A61:XFD61"/>
+    <mergeCell ref="C62:C68"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A77:XFD77"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A102:XFD102"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="A133:XFD133"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="A118:XFD118"/>
+    <mergeCell ref="C119:C125"/>
+    <mergeCell ref="B119:B125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="A140:XFD140"/>
+    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C147:C149"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="A166:XFD166"/>
+    <mergeCell ref="C167:C171"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C160:C165"/>
+    <mergeCell ref="B160:B165"/>
+    <mergeCell ref="A186:XFD186"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="C187:C191"/>
+    <mergeCell ref="B192:B194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="B184:B185"/>
     <mergeCell ref="D202:D203"/>
     <mergeCell ref="B204:B205"/>
     <mergeCell ref="C204:C205"/>
@@ -10148,127 +10236,30 @@
     <mergeCell ref="B202:B203"/>
     <mergeCell ref="C202:C203"/>
     <mergeCell ref="G202:G203"/>
-    <mergeCell ref="A186:XFD186"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="C187:C191"/>
-    <mergeCell ref="B192:B194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A166:XFD166"/>
-    <mergeCell ref="C167:C171"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C160:C165"/>
-    <mergeCell ref="B160:B165"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="A140:XFD140"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C147:C149"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="A133:XFD133"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="A118:XFD118"/>
-    <mergeCell ref="C119:C125"/>
-    <mergeCell ref="B119:B125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="C103:C108"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A102:XFD102"/>
-    <mergeCell ref="A77:XFD77"/>
-    <mergeCell ref="C78:C83"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A61:XFD61"/>
-    <mergeCell ref="C62:C68"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C227:C234"/>
+    <mergeCell ref="B227:B234"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="B235:B237"/>
+    <mergeCell ref="A220:XFD220"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="A226:XFD226"/>
+    <mergeCell ref="B282:B283"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="B255:B262"/>
+    <mergeCell ref="C255:C262"/>
+    <mergeCell ref="A266:XFD266"/>
+    <mergeCell ref="C267:C270"/>
+    <mergeCell ref="B267:B270"/>
+    <mergeCell ref="A275:XFD275"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="A242:XFD242"/>
+    <mergeCell ref="C243:C250"/>
+    <mergeCell ref="B243:B250"/>
+    <mergeCell ref="A254:XFD254"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G276:G297 G40:G42 G62:G76 G44:G60 G78:G101 G103:G117 G119:G132 G134:G139 G12:G29 G167:G185 G204:G209 G221:G225 G211:G219 G227:G241 G255:G265 G243:G253 G141:G165 G31:G38 G187:G202 G267:G274">
